--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -44,7 +44,25 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 9:22 AM</t>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>Wednesday, 8 October, 2025 9:23 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +272,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +284,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,32 +692,46 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
+      <c r="P8" s="13">
+        <v>30</v>
+      </c>
       <c r="Q8" s="13"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c t="s" r="A9" s="14">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -707,13 +739,13 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c t="s" r="G9" s="15">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c t="s" r="K9" s="17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -62,7 +62,7 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 9:23 AM</t>
+    <t>Wednesday, 8 October, 2025 9:26 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -44,6 +44,21 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CARVID 6.25MG 30TAB</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>FAYCID HAIR OIL 60 ML</t>
   </si>
   <si>
@@ -59,10 +74,19 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>Wednesday, 8 October, 2025 9:26 AM</t>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 8 October, 2025 9:37 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -720,42 +744,108 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>17</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>18</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
         <v>18</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>23</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>141</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>25</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>26</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>27</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +859,20 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -86,7 +86,19 @@
     <t>66.0000</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 9:37 AM</t>
+    <t>اولويز ماكس طويل جدا</t>
+  </si>
+  <si>
+    <t>37:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 8 October, 2025 9:38 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -814,38 +826,71 @@
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>141</v>
-      </c>
-      <c r="Q10" s="13"/>
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>26</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>27</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>25</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>26</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>27</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>176</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>29</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>30</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>31</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -869,10 +914,15 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -98,7 +98,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 9:38 AM</t>
+    <t>Wednesday, 8 October, 2025 9:50 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -86,6 +86,21 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>اولويز ماكس طويل جدا</t>
   </si>
   <si>
@@ -98,7 +113,34 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 9:50 AM</t>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>Wednesday, 8 October, 2025 9:53 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -844,7 +886,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -855,42 +897,174 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>31</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>32</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>176</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
-        <v>29</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
-        <v>30</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
-        <v>31</v>
-      </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>34</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>35</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>36</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>39</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>40</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>42</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>39</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>36</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>220</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>43</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>44</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>45</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -919,10 +1093,30 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -140,7 +140,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 9:53 AM</t>
+    <t>Wednesday, 8 October, 2025 10:04 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -137,10 +137,13 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 10:04 AM</t>
+    <t>Wednesday, 8 October, 2025 4:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1012,7 +1015,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1022,49 +1025,82 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>220</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>43</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>39</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>36</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>250</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
         <v>44</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
         <v>45</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>46</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1113,10 +1149,15 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -44,12 +44,60 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ANTINAL 200MG 24 CAPSULES</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -59,15 +107,33 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DICLAC 75 ID 30 TAB</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
     <t>FAYCID HAIR OIL 60 ML</t>
   </si>
   <si>
     <t>8:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -86,6 +152,18 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -98,7 +176,58 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>RICHI PANTHENOL ADVANCE GEL</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>VENTAMOR FACIAL WASH</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
   </si>
   <si>
     <t>اولويز ماكس طويل جدا</t>
@@ -113,6 +242,21 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>ايزي سويت 3 قطع</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>بادي سبلاش افوفا الصغير</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -128,9 +272,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -140,10 +281,16 @@
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
+    <t>قصافات كبار لوكس</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 4:17 PM</t>
+    <t>Wednesday, 8 October, 2025 4:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -801,7 +948,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -810,20 +957,20 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
@@ -856,7 +1003,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -883,24 +1030,24 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -909,28 +1056,28 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -942,14 +1089,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -959,11 +1106,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -975,31 +1122,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1008,14 +1155,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1025,11 +1172,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1048,7 +1195,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1058,49 +1205,577 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>250</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
-        <v>44</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
-        <v>45</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
-        <v>46</v>
-      </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>33</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>48</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>51</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>52</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>53</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>55</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>16</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>56</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>58</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>18</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>29</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>59</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>61</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>62</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>13</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>63</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>64</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>12</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>29</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>65</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>67</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>50</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>13</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>68</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>70</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>50</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>29</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>71</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>73</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>74</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>29</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>75</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>77</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>78</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>29</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>79</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>81</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>22</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>29</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>75</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>82</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>83</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>29</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>84</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>86</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>50</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>29</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>87</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>89</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>12</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>29</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>41</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>90</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>91</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>29</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>84</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>92</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>50</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>29</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>84</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1058.76</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>93</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>94</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>95</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1154,10 +1829,90 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -290,7 +290,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 4:28 PM</t>
+    <t>Wednesday, 8 October, 2025 4:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
@@ -107,6 +119,18 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
@@ -128,6 +152,24 @@
     <t>44.5500</t>
   </si>
   <si>
+    <t>ENERZAD EXTRA</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
     <t>FAYCID HAIR OIL 60 ML</t>
   </si>
   <si>
@@ -185,6 +227,21 @@
     <t>72.5000</t>
   </si>
   <si>
+    <t>MELACRYST 3 MG 20 ORO-DISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>1:17</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>-76.5000</t>
+  </si>
+  <si>
+    <t>0:-17</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
@@ -224,10 +281,13 @@
     <t>VENTAMOR FACIAL WASH</t>
   </si>
   <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
   </si>
   <si>
     <t>اولويز ماكس طويل جدا</t>
@@ -263,10 +323,13 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>3.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -290,7 +353,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 4:29 PM</t>
+    <t>Wednesday, 8 October, 2025 4:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -964,7 +1027,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -974,14 +1037,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1014,7 +1077,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1030,7 +1093,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1040,11 +1103,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1056,20 +1119,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1080,7 +1143,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1096,13 +1159,13 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1113,7 +1176,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1129,21 +1192,21 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1155,14 +1218,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1172,14 +1235,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1188,20 +1251,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1212,7 +1275,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1228,13 +1291,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1245,7 +1308,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1254,14 +1317,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1271,11 +1334,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1287,14 +1350,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1304,11 +1367,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1320,20 +1383,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1360,7 +1423,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1370,14 +1433,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1386,31 +1449,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1419,14 +1482,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1436,14 +1499,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1452,31 +1515,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1485,31 +1548,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1518,31 +1581,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1551,31 +1614,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1584,31 +1647,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1617,31 +1680,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1650,31 +1713,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1683,31 +1746,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1716,66 +1779,297 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1058.76</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>93</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
-        <v>94</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>101</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>26</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>33</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>95</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>102</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>103</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>33</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>14</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>104</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>105</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>33</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>99</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>107</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>64</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>33</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>108</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>110</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>16</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>33</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>55</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>111</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>112</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>33</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>14</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>113</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>64</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>33</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>14</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1377.26</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>114</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>115</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>116</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1909,10 +2203,45 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -353,7 +353,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 4:35 PM</t>
+    <t>Wednesday, 8 October, 2025 4:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -278,6 +278,9 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>VENTAMOR BLACK CHARCOAL SOAP 100 GM</t>
+  </si>
+  <si>
     <t>VENTAMOR FACIAL WASH</t>
   </si>
   <si>
@@ -317,6 +320,9 @@
     <t>بادي سبلاش افوفا الصغير</t>
   </si>
   <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -353,7 +359,13 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 4:36 PM</t>
+    <t>كريم كير اند مور75مل</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>Wednesday, 8 October, 2025 4:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1693,15 +1705,15 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1720,24 +1732,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1746,31 +1758,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1779,14 +1791,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1796,11 +1808,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1812,14 +1824,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1829,11 +1841,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1852,7 +1864,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1862,14 +1874,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1895,14 +1907,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1911,14 +1923,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1928,14 +1940,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1944,14 +1956,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1961,11 +1973,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -1977,14 +1989,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -1994,11 +2006,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2017,7 +2029,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2038,38 +2050,104 @@
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1377.26</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
-        <v>114</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>115</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>64</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>33</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>14</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>116</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>117</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>33</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>34</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1577.26</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>118</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>119</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>120</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2238,10 +2316,20 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -365,7 +365,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 4:44 PM</t>
+    <t>Wednesday, 8 October, 2025 4:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
@@ -365,7 +377,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 4:49 PM</t>
+    <t>Wednesday, 8 October, 2025 4:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1138,7 +1150,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1148,14 +1160,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1164,20 +1176,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1188,7 +1200,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1204,13 +1216,13 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1270,24 +1282,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1296,31 +1308,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1329,28 +1341,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1362,14 +1374,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1435,7 +1447,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1445,14 +1457,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1468,7 +1480,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1478,14 +1490,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>68</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1501,7 +1513,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1511,11 +1523,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -1527,14 +1539,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1551,7 +1563,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1560,20 +1572,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1584,7 +1596,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1593,20 +1605,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1614,7 +1626,7 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -1626,31 +1638,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1659,28 +1671,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1692,14 +1704,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1709,11 +1721,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1725,28 +1737,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1758,31 +1770,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1791,20 +1803,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1815,7 +1827,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1837,7 +1849,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1864,24 +1876,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1890,31 +1902,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1923,31 +1935,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1956,31 +1968,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1989,28 +2001,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2022,28 +2034,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2055,20 +2067,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2088,66 +2100,99 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
         <v>35</v>
       </c>
-      <c t="s" r="Q40" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1577.26</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>118</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>119</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>120</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>121</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>37</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>38</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1595.26</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>122</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>123</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>124</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2326,10 +2371,15 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -377,7 +377,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 4:51 PM</t>
+    <t>Wednesday, 8 October, 2025 4:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -281,6 +281,12 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>SELGON 10MG 6 INFANT SUPP.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
   </si>
   <si>
@@ -320,9 +326,6 @@
     <t>ايزي سويت 3 قطع</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -377,7 +380,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 4:52 PM</t>
+    <t>Wednesday, 8 October, 2025 4:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1711,7 +1714,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1721,11 +1724,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1737,7 +1740,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1754,11 +1757,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1770,7 +1773,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1783,15 +1786,15 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1803,31 +1806,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1836,31 +1839,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1869,14 +1872,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1886,11 +1889,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1902,14 +1905,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1919,14 +1922,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1935,14 +1938,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1952,14 +1955,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1968,14 +1971,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1985,14 +1988,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2001,14 +2004,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2018,14 +2021,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2034,14 +2037,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2051,11 +2054,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2074,7 +2077,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2084,11 +2087,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2100,14 +2103,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2140,7 +2143,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2150,49 +2153,82 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>121</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>122</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>37</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>38</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
         <v>39</v>
       </c>
-      <c t="s" r="Q41" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1595.26</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>122</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1610.26</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
         <v>123</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
         <v>124</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>125</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2376,10 +2412,15 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -374,13 +374,16 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>كريم فيرند لافلي الصغير</t>
+  </si>
+  <si>
     <t>كريم كير اند مور75مل</t>
   </si>
   <si>
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 4:56 PM</t>
+    <t>Wednesday, 8 October, 2025 4:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2176,7 +2179,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2186,49 +2189,82 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>122</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>123</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>37</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>38</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
         <v>39</v>
       </c>
-      <c t="s" r="Q42" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1610.26</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>123</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1630.26</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
         <v>124</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
         <v>125</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>126</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2417,10 +2453,15 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -272,6 +272,15 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
     <t>RICHI PANTHENOL ADVANCE GEL</t>
   </si>
   <si>
@@ -383,7 +392,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 4:57 PM</t>
+    <t>Wednesday, 8 October, 2025 5:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1684,7 +1693,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1694,14 +1703,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1717,21 +1726,21 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1743,14 +1752,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1760,11 +1769,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1793,11 +1802,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1809,7 +1818,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1822,15 +1831,15 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1842,31 +1851,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1882,24 +1891,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1908,14 +1917,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1948,7 +1957,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1958,14 +1967,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1974,14 +1983,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1991,14 +2000,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2007,14 +2016,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2024,14 +2033,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2047,7 +2056,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2057,14 +2066,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2080,7 +2089,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2090,11 +2099,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2106,14 +2115,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2123,11 +2132,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2139,14 +2148,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2172,14 +2181,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2189,11 +2198,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2205,14 +2214,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2222,49 +2231,82 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>125</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>126</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>37</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>38</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
         <v>39</v>
       </c>
-      <c t="s" r="Q43" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1630.26</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>124</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
-        <v>125</v>
-      </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
-        <v>126</v>
-      </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1657.26</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>127</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>128</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>129</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2458,10 +2500,15 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -98,6 +98,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>AZROLID 200MG/ 5 ML FOR ORAL 30ML SUSP</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -281,6 +290,15 @@
     <t>108.00</t>
   </si>
   <si>
+    <t>PECTIPRO 0.3% SYRUP 90ML</t>
+  </si>
+  <si>
+    <t>29.50</t>
+  </si>
+  <si>
+    <t>29.5000</t>
+  </si>
+  <si>
     <t>RICHI PANTHENOL ADVANCE GEL</t>
   </si>
   <si>
@@ -305,12 +323,33 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>TREXOTAZ 1.5 GM I.M. / I.V. VIAL</t>
+  </si>
+  <si>
+    <t>62.50</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
     <t>VENTAMOR BLACK CHARCOAL SOAP 100 GM</t>
   </si>
   <si>
     <t>VENTAMOR FACIAL WASH</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8177:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
@@ -365,10 +404,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2.0000</t>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
   </si>
   <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
@@ -392,7 +431,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 5:21 PM</t>
+    <t>Wednesday, 8 October, 2025 5:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1165,7 +1204,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1175,11 +1214,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1191,14 +1230,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1215,7 +1254,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1231,24 +1270,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1257,28 +1296,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1290,14 +1329,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1307,11 +1346,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1323,20 +1362,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1347,7 +1386,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1363,13 +1402,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1380,7 +1419,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1396,13 +1435,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1429,7 +1468,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1439,11 +1478,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1455,14 +1494,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1472,11 +1511,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1488,14 +1527,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1512,7 +1551,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1521,14 +1560,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1538,14 +1577,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1554,14 +1593,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1594,7 +1633,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1604,14 +1643,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1620,31 +1659,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>83</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1660,21 +1699,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -1699,7 +1738,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1707,7 +1746,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -1726,24 +1765,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1759,7 +1798,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1769,11 +1808,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1785,28 +1824,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1818,14 +1857,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1835,11 +1874,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1851,28 +1890,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1884,14 +1923,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1901,14 +1940,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1917,28 +1956,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1950,28 +1989,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1983,28 +2022,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>26</v>
@@ -2016,31 +2055,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2049,31 +2088,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2082,28 +2121,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2115,7 +2154,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2128,18 +2167,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2148,20 +2187,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2181,31 +2220,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2214,31 +2253,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2247,66 +2286,231 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
         <v>39</v>
       </c>
-      <c t="s" r="Q44" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1657.26</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
-        <v>127</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
-        <v>128</v>
-      </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
-        <v>129</v>
-      </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>133</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>16</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>40</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>62</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>134</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>135</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>40</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>14</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>136</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>71</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>40</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>14</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>137</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>48</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>40</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>121</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>138</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>139</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>40</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>41</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>1892.76</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>140</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>141</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>142</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2505,10 +2709,35 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -431,7 +431,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 5:23 PM</t>
+    <t>Wednesday, 8 October, 2025 5:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -65,6 +65,9 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>87.00</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -248,6 +248,18 @@
     <t>72.5000</t>
   </si>
   <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>MELACRYST 3 MG 20 ORO-DISPERSIBLE FILMS</t>
   </si>
   <si>
@@ -410,6 +422,12 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>46:0</t>
+  </si>
+  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -431,7 +449,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 5:28 PM</t>
+    <t>Wednesday, 8 October, 2025 6:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1105,7 +1123,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1115,14 +1133,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1131,14 +1149,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1148,11 +1166,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1164,14 +1182,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1270,7 +1288,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1287,7 +1305,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1419,7 +1437,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1468,7 +1486,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1617,7 +1635,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1633,7 +1651,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1650,7 +1668,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1683,7 +1701,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1692,20 +1710,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1716,7 +1734,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1725,20 +1743,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1746,10 +1764,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1758,31 +1776,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1791,31 +1809,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1824,28 +1842,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1857,28 +1875,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1890,14 +1908,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1907,11 +1925,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1923,7 +1941,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1940,14 +1958,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1956,7 +1974,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1973,14 +1991,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1989,7 +2007,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2002,15 +2020,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2022,31 +2040,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2062,7 +2080,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2072,14 +2090,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2088,20 +2106,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2112,7 +2130,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2128,7 +2146,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2138,11 +2156,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2154,14 +2172,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2171,14 +2189,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2187,14 +2205,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2204,14 +2222,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2220,14 +2238,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2237,14 +2255,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2253,14 +2271,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2270,14 +2288,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2286,7 +2304,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2303,14 +2321,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2319,14 +2337,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2336,11 +2354,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2352,14 +2370,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2369,11 +2387,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2385,14 +2403,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2402,11 +2420,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2418,14 +2436,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2435,11 +2453,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2451,14 +2469,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2468,49 +2486,115 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>143</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>48</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>40</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>125</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>144</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>145</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>40</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>41</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
         <v>42</v>
       </c>
-      <c t="s" r="Q49" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>1892.76</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>140</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>141</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>142</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>1952.76</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>146</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>147</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>148</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2734,10 +2818,20 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -449,7 +449,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 6:01 PM</t>
+    <t>Wednesday, 8 October, 2025 6:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1585,7 +1585,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -428,6 +428,15 @@
     <t>46:0</t>
   </si>
   <si>
+    <t>شامبو كلير للرجال 180مل</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -449,7 +458,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 6:17 PM</t>
+    <t>Wednesday, 8 October, 2025 6:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2410,7 +2419,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2420,11 +2429,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2436,14 +2445,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2453,11 +2462,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2469,14 +2478,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2502,14 +2511,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2519,11 +2528,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2535,14 +2544,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2552,49 +2561,82 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>147</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>148</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>40</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>41</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
         <v>42</v>
       </c>
-      <c t="s" r="Q51" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>1952.76</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>146</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
-        <v>147</v>
-      </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
-        <v>148</v>
-      </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2032.76</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>149</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>150</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>151</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2828,10 +2870,15 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -215,6 +215,18 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>GLYCERIN (EL-NILE) INFANTILE 6 SUPP.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
   </si>
   <si>
@@ -224,9 +236,6 @@
     <t>0.0000</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -236,7 +245,13 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>LANTOPEP 60 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
   </si>
   <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
@@ -275,6 +290,15 @@
     <t>0:-17</t>
   </si>
   <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
@@ -284,6 +308,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>NORMOCARD 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -335,6 +368,12 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>TAVONIZA 10 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
     <t>TREXOTAZ 1.5 GM I.M. / I.V. VIAL</t>
   </si>
   <si>
@@ -458,7 +497,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 6:27 PM</t>
+    <t>Wednesday, 8 October, 2025 6:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1594,7 +1633,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1604,14 +1643,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1627,7 +1666,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1637,14 +1676,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1653,14 +1692,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1674,7 +1713,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1686,14 +1725,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1703,14 +1742,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1719,14 +1758,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1736,14 +1775,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1752,31 +1791,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1785,14 +1824,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1802,14 +1841,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1818,28 +1857,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1851,31 +1890,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1884,31 +1923,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1917,14 +1956,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1934,14 +1973,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1957,24 +1996,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1990,7 +2029,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2007,7 +2046,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2023,21 +2062,21 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2049,28 +2088,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2082,14 +2121,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2099,14 +2138,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2115,7 +2154,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2132,11 +2171,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2148,20 +2187,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2172,7 +2211,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2188,21 +2227,21 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2214,14 +2253,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2231,14 +2270,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2247,31 +2286,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2280,31 +2319,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2313,14 +2352,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2330,14 +2369,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2346,14 +2385,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2363,11 +2402,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2379,14 +2418,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2396,14 +2435,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2412,14 +2451,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2429,11 +2468,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2445,14 +2484,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2462,14 +2501,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2478,14 +2517,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2495,14 +2534,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2511,14 +2550,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2528,11 +2567,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2544,14 +2583,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2561,11 +2600,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2577,14 +2616,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2594,49 +2633,214 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>155</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>16</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>40</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>62</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>156</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>157</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>40</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>14</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>158</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>69</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>40</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>14</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>159</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>48</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>40</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>138</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>160</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>161</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>40</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>41</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
         <v>42</v>
       </c>
-      <c t="s" r="Q52" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2032.76</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>149</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>150</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
-        <v>151</v>
-      </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2244.0799999999999</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>162</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>163</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>164</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2875,10 +3079,35 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -92,10 +92,13 @@
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>24.0000</t>
+    <t>48.0000</t>
   </si>
   <si>
     <t>AZROLID 200MG/ 5 ML FOR ORAL 30ML SUSP</t>
@@ -155,9 +158,6 @@
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>23.00</t>
   </si>
   <si>
@@ -203,6 +203,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -374,6 +383,15 @@
     <t>124.00</t>
   </si>
   <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>TREXOTAZ 1.5 GM I.M. / I.V. VIAL</t>
   </si>
   <si>
@@ -407,9 +425,6 @@
     <t>100.00</t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>اولويز ماكس طويل جدا</t>
   </si>
   <si>
@@ -497,7 +512,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 6:35 PM</t>
+    <t>Wednesday, 8 October, 2025 6:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1237,7 +1252,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1247,14 +1262,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1263,7 +1278,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1280,11 +1295,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1296,14 +1311,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1313,11 +1328,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1329,7 +1344,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1346,11 +1361,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1362,7 +1377,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1375,15 +1390,15 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1395,14 +1410,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1412,11 +1427,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1428,14 +1443,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1474,7 +1489,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1501,13 +1516,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1600,7 +1615,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1610,11 +1625,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1626,14 +1641,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1643,11 +1658,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1659,14 +1674,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1683,7 +1698,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1699,7 +1714,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1709,14 +1724,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1732,7 +1747,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1742,11 +1757,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1765,7 +1780,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1798,7 +1813,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1808,14 +1823,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1824,14 +1839,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1841,14 +1856,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1857,14 +1872,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1874,14 +1889,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>95</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1897,13 +1912,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1930,17 +1945,17 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -1973,11 +1988,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2002,7 +2017,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2010,7 +2025,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2029,24 +2044,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2062,13 +2077,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2095,21 +2110,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2121,14 +2136,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2138,11 +2153,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2161,7 +2176,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2175,10 +2190,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2187,14 +2202,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2204,14 +2219,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2227,7 +2242,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2237,11 +2252,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2253,31 +2268,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2286,14 +2301,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2303,14 +2318,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2319,31 +2334,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2352,31 +2367,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2385,31 +2400,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2418,31 +2433,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2458,21 +2473,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2484,31 +2499,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>69</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2524,24 +2539,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2550,31 +2565,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2583,31 +2598,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2616,28 +2631,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2656,21 +2671,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2682,28 +2697,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2715,28 +2730,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2748,28 +2763,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2781,66 +2796,132 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>164</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>27</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>41</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>143</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>165</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>166</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>41</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
         <v>42</v>
       </c>
-      <c t="s" r="Q57" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>2244.0799999999999</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
-        <v>162</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
-        <v>163</v>
-      </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
-        <v>164</v>
-      </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>2344.0799999999999</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>167</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>168</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>169</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3104,10 +3185,20 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -245,6 +245,12 @@
     <t>0.0000</t>
   </si>
   <si>
+    <t>KEFLEX 1GM 16 TABS.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -335,6 +341,18 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -512,7 +530,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 6:37 PM</t>
+    <t>Wednesday, 8 October, 2025 6:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1747,7 +1765,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1757,11 +1775,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1773,14 +1791,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1794,7 +1812,7 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1806,14 +1824,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1823,11 +1841,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1839,14 +1857,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1856,14 +1874,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1872,14 +1890,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1889,14 +1907,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1905,14 +1923,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1922,14 +1940,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1938,28 +1956,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1971,28 +1989,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2004,14 +2022,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2021,11 +2039,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2037,28 +2055,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2070,14 +2088,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2094,7 +2112,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2110,7 +2128,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2120,14 +2138,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2143,7 +2161,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2153,11 +2171,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2169,28 +2187,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2202,14 +2220,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2219,14 +2237,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2235,14 +2253,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2252,11 +2270,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2268,14 +2286,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2285,14 +2303,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2308,7 +2326,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2318,11 +2336,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2334,7 +2352,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2347,18 +2365,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2367,14 +2385,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2384,14 +2402,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2400,31 +2418,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2446,7 +2464,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2457,7 +2475,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2473,13 +2491,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2487,10 +2505,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2499,14 +2517,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2516,14 +2534,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2532,14 +2550,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2549,11 +2567,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2565,14 +2583,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2582,14 +2600,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>72</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2598,14 +2616,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2615,14 +2633,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2631,14 +2649,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2648,14 +2666,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2664,14 +2682,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2681,14 +2699,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2697,14 +2715,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2714,11 +2732,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2730,14 +2748,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2747,11 +2765,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2763,14 +2781,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2780,11 +2798,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2796,14 +2814,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2813,11 +2831,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2829,14 +2847,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2846,11 +2864,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2862,14 +2880,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2879,49 +2897,115 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>170</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>27</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>41</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>149</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>171</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>172</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>41</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>42</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
         <v>43</v>
       </c>
-      <c t="s" r="Q59" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>2344.0799999999999</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
-        <v>167</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
-        <v>168</v>
-      </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
-        <v>169</v>
-      </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2448.0799999999999</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>173</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>174</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>175</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3195,10 +3279,20 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -419,6 +419,15 @@
     <t>125.0000</t>
   </si>
   <si>
+    <t>TRI-BETAPRONATE CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>VENTAMOR BLACK CHARCOAL SOAP 100 GM</t>
   </si>
   <si>
@@ -485,15 +494,18 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>سرنجات دواء 5 سم</t>
   </si>
   <si>
@@ -530,7 +542,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 6:42 PM</t>
+    <t>Wednesday, 8 October, 2025 6:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2392,7 +2404,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2402,11 +2414,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2418,7 +2430,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2431,15 +2443,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2451,31 +2463,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2484,14 +2496,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2505,10 +2517,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2517,20 +2529,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2538,10 +2550,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2550,14 +2562,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2590,7 +2602,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2600,14 +2612,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2616,14 +2628,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2633,14 +2645,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2649,14 +2661,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2666,14 +2678,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2689,7 +2701,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2699,14 +2711,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>124</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2715,7 +2727,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2732,14 +2744,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2748,14 +2760,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2765,14 +2777,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2781,14 +2793,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2798,11 +2810,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2814,14 +2826,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2831,11 +2843,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2854,7 +2866,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2864,11 +2876,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2880,14 +2892,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2897,11 +2909,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2913,14 +2925,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2930,11 +2942,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2946,14 +2958,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>172</v>
+        <v>72</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2963,49 +2975,115 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>174</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>27</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>41</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>152</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>175</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>176</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>41</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>42</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
         <v>43</v>
       </c>
-      <c t="s" r="Q61" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2448.0799999999999</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>173</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
-        <v>174</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
-        <v>175</v>
-      </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>2502.0799999999999</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>177</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>178</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>179</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3289,10 +3367,20 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -155,6 +155,12 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>DAKTACORT CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
@@ -428,6 +434,15 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>UNIFUNGI 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>VENTAMOR BLACK CHARCOAL SOAP 100 GM</t>
   </si>
   <si>
@@ -542,7 +557,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 6:48 PM</t>
+    <t>Wednesday, 8 October, 2025 6:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1494,7 +1509,7 @@
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1506,31 +1521,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1539,14 +1554,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1556,14 +1571,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1572,28 +1587,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1605,14 +1620,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1622,11 +1637,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1638,14 +1653,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1655,11 +1670,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1671,14 +1686,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1688,11 +1703,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1704,14 +1719,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1721,11 +1736,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1737,14 +1752,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1754,14 +1769,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1770,14 +1785,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1787,14 +1802,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1810,7 +1825,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1820,11 +1835,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1836,14 +1851,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1857,7 +1872,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1869,14 +1884,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1886,11 +1901,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1902,14 +1917,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1919,14 +1934,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1935,14 +1950,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1952,14 +1967,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1968,14 +1983,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1985,14 +2000,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2001,28 +2016,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2034,28 +2049,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2067,14 +2082,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2084,11 +2099,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2100,14 +2115,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2117,11 +2132,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2133,28 +2148,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2166,20 +2181,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2187,10 +2202,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2199,28 +2214,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2232,28 +2247,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2272,7 +2287,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2282,11 +2297,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2298,14 +2313,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2315,14 +2330,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2338,7 +2353,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2352,10 +2367,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2364,14 +2379,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2381,14 +2396,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2397,14 +2412,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2414,14 +2429,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2430,14 +2445,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2447,11 +2462,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2463,28 +2478,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2496,14 +2511,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2513,14 +2528,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2536,24 +2551,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2562,31 +2577,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2595,31 +2610,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2628,14 +2643,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2645,14 +2660,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2668,7 +2683,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2678,11 +2693,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2694,14 +2709,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2711,14 +2726,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>72</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2734,7 +2749,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2744,14 +2759,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2767,7 +2782,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2777,14 +2792,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>74</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>124</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2793,14 +2808,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2810,14 +2825,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2826,14 +2841,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2843,14 +2858,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2859,14 +2874,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2876,11 +2891,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2899,7 +2914,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2909,11 +2924,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2925,14 +2940,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2942,11 +2957,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2958,14 +2973,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2975,11 +2990,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -2991,14 +3006,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3008,11 +3023,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3024,14 +3039,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3041,49 +3056,115 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>179</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>27</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>41</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>157</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>180</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>181</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>41</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>42</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
         <v>43</v>
       </c>
-      <c t="s" r="Q63" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>2502.0799999999999</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
-        <v>177</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
-        <v>178</v>
-      </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
-        <v>179</v>
-      </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>2603.0799999999999</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>182</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>183</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>184</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3377,10 +3458,20 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -101,6 +101,15 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>AZROLID 200MG/ 5 ML FOR ORAL 30ML SUSP</t>
   </si>
   <si>
@@ -401,6 +410,15 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>TAVANIC 500MG 5 TAB</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t>TAVONIZA 10 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -491,9 +509,6 @@
     <t>بادي سبلاش افوفا الصغير</t>
   </si>
   <si>
-    <t>105.0000</t>
-  </si>
-  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -557,7 +572,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 6:49 PM</t>
+    <t>Wednesday, 8 October, 2025 6:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1330,7 +1345,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1347,7 +1362,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1363,7 +1378,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1373,11 +1388,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1389,14 +1404,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1413,7 +1428,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1429,24 +1444,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1455,28 +1470,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1488,14 +1503,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1509,7 +1524,7 @@
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1521,7 +1536,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1538,11 +1553,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1561,13 +1576,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1578,7 +1593,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1594,13 +1609,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1611,7 +1626,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1627,13 +1642,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1660,7 +1675,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1670,11 +1685,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1686,14 +1701,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1726,7 +1741,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1736,11 +1751,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1752,14 +1767,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1769,11 +1784,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1785,14 +1800,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1809,7 +1824,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1825,7 +1840,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1839,10 +1854,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1851,14 +1866,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1872,7 +1887,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1891,7 +1906,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1901,11 +1916,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1924,7 +1939,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1957,7 +1972,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1967,14 +1982,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1983,14 +1998,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2000,14 +2015,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2016,14 +2031,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2033,14 +2048,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>102</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2056,13 +2071,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2089,17 +2104,17 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2132,11 +2147,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2169,7 +2184,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2181,28 +2196,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2221,24 +2236,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2254,13 +2269,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2287,21 +2302,21 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2313,14 +2328,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2330,11 +2345,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2353,7 +2368,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2367,10 +2382,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2379,14 +2394,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2396,11 +2411,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2412,14 +2427,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2429,14 +2444,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2452,7 +2467,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2485,7 +2500,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2502,7 +2517,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2518,7 +2533,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2528,11 +2543,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2544,28 +2559,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2577,14 +2592,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2594,14 +2609,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2610,31 +2625,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2656,7 +2671,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2667,7 +2682,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2683,13 +2698,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2697,10 +2712,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2709,31 +2724,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2742,28 +2757,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2775,31 +2790,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2815,24 +2830,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2848,24 +2863,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2874,31 +2889,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2907,31 +2922,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2940,28 +2955,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2980,21 +2995,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3006,28 +3021,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3039,28 +3054,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3072,28 +3087,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3105,66 +3120,132 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>2603.0799999999999</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
-        <v>182</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
-        <v>183</v>
-      </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
         <v>184</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>27</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>44</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>163</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>185</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>186</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>44</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>45</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>2900.0799999999999</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>187</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>188</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>189</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3468,10 +3549,20 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -164,6 +164,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>COPAD 10.000 30 CAPS.</t>
+  </si>
+  <si>
+    <t>215.00</t>
+  </si>
+  <si>
+    <t>70.9500</t>
+  </si>
+  <si>
     <t>DAKTACORT CREAM 15 GM</t>
   </si>
   <si>
@@ -290,7 +299,7 @@
     <t>145.00</t>
   </si>
   <si>
-    <t>72.5000</t>
+    <t>145.0000</t>
   </si>
   <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
@@ -347,6 +356,12 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -386,6 +401,15 @@
     <t>29.5000</t>
   </si>
   <si>
+    <t>PROTOFIX 40MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>RICHI PANTHENOL ADVANCE GEL</t>
   </si>
   <si>
@@ -395,6 +419,15 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>RIVAROSPIRE 10 MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>254.00</t>
+  </si>
+  <si>
+    <t>127.0000</t>
+  </si>
+  <si>
     <t>SELGON 10MG 6 INFANT SUPP.</t>
   </si>
   <si>
@@ -572,7 +605,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 6:50 PM</t>
+    <t>Wednesday, 8 October, 2025 6:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1543,7 +1576,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1557,10 +1590,10 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1569,7 +1602,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1586,11 +1619,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1609,13 +1642,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1626,7 +1659,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1642,7 +1675,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1659,7 +1692,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1675,13 +1708,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1708,7 +1741,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1718,11 +1751,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1734,14 +1767,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1774,7 +1807,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1784,11 +1817,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1800,14 +1833,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1817,11 +1850,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1833,14 +1866,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1857,7 +1890,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1873,7 +1906,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1887,10 +1920,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1899,14 +1932,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1920,7 +1953,7 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1939,7 +1972,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1949,11 +1982,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1972,7 +2005,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2005,7 +2038,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2015,11 +2048,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2031,14 +2064,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2048,14 +2081,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2064,14 +2097,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2081,14 +2114,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>105</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2104,13 +2137,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2137,17 +2170,17 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2180,11 +2213,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2203,7 +2236,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2213,11 +2246,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2229,28 +2262,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2262,14 +2295,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2279,14 +2312,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2295,14 +2328,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2316,10 +2349,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2328,14 +2361,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2345,11 +2378,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2368,7 +2401,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2385,7 +2418,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2401,13 +2434,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2434,7 +2467,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2448,7 +2481,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2460,14 +2493,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2477,11 +2510,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2500,7 +2533,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2517,7 +2550,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2533,7 +2566,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2566,7 +2599,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2580,10 +2613,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2592,14 +2625,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2609,11 +2642,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2625,31 +2658,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2658,14 +2691,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2675,14 +2708,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2691,14 +2724,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2708,14 +2741,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2724,28 +2757,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2764,7 +2797,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2774,11 +2807,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2790,28 +2823,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -2823,31 +2856,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2856,14 +2889,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2873,14 +2906,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2889,14 +2922,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2906,14 +2939,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2922,14 +2955,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2939,14 +2972,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2955,14 +2988,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2972,11 +3005,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2988,14 +3021,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3005,14 +3038,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3021,14 +3054,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3038,14 +3071,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3054,14 +3087,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3071,14 +3104,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3087,14 +3120,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3104,11 +3137,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3120,14 +3153,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3137,11 +3170,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3153,14 +3186,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3170,11 +3203,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3186,14 +3219,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3203,49 +3236,181 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>192</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>193</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>44</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>14</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>194</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>80</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>44</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>14</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>195</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>27</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>44</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>174</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>196</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>197</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>44</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>45</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
         <v>46</v>
       </c>
-      <c t="s" r="Q67" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>2900.0799999999999</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>187</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
-        <v>188</v>
-      </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
-        <v>189</v>
-      </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3303.5300000000002</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>198</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>199</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>200</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3559,10 +3724,30 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -197,6 +197,9 @@
     <t>44.5500</t>
   </si>
   <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
     <t>ENERZAD EXTRA</t>
   </si>
   <si>
@@ -476,6 +479,15 @@
     <t>125.0000</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>TRI-BETAPRONATE CREAM 30 GM</t>
   </si>
   <si>
@@ -605,7 +617,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 6:54 PM</t>
+    <t>Wednesday, 8 October, 2025 7:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1708,21 +1720,21 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1734,28 +1746,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1767,14 +1779,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1784,11 +1796,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1800,14 +1812,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1817,11 +1829,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1833,14 +1845,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1850,11 +1862,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1866,14 +1878,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1883,11 +1895,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1899,14 +1911,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1916,14 +1928,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1932,14 +1944,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1949,14 +1961,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1965,14 +1977,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1982,11 +1994,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1998,14 +2010,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2015,11 +2027,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2031,7 +2043,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2048,14 +2060,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2064,14 +2076,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2081,11 +2093,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2097,14 +2109,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2114,14 +2126,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2130,14 +2142,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2147,14 +2159,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2163,28 +2175,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2196,28 +2208,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2229,14 +2241,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2246,11 +2258,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2262,14 +2274,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2279,11 +2291,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2295,14 +2307,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2312,11 +2324,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2328,28 +2340,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2361,31 +2373,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2394,14 +2406,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2411,14 +2423,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2427,31 +2439,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2460,7 +2472,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2473,18 +2485,18 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2493,14 +2505,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2510,14 +2522,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2526,14 +2538,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2543,11 +2555,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2559,14 +2571,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2576,11 +2588,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2592,14 +2604,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2609,14 +2621,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2625,14 +2637,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2642,14 +2654,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2658,14 +2670,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2675,14 +2687,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2691,14 +2703,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2708,14 +2720,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2724,14 +2736,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2741,11 +2753,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2757,14 +2769,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2774,11 +2786,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2797,21 +2809,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2823,14 +2835,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2840,14 +2852,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2856,31 +2868,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2889,31 +2901,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2922,31 +2934,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2955,14 +2967,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2972,14 +2984,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2995,7 +3007,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3005,11 +3017,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3021,14 +3033,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3038,14 +3050,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>80</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3054,14 +3066,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3071,14 +3083,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>140</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3087,14 +3099,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3104,14 +3116,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>140</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3120,14 +3132,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3137,14 +3149,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3153,14 +3165,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3170,14 +3182,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3186,14 +3198,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3203,11 +3215,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3219,14 +3231,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3236,11 +3248,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>71</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3259,7 +3271,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3269,11 +3281,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3285,14 +3297,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3302,11 +3314,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3318,14 +3330,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3335,11 +3347,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3351,14 +3363,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3368,49 +3380,115 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>199</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>27</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>44</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>178</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>200</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>201</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>44</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>45</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
         <v>46</v>
       </c>
-      <c t="s" r="Q71" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3303.5300000000002</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>198</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
-        <v>199</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
-        <v>200</v>
-      </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>3411.5300000000002</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>202</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>203</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>204</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3744,10 +3822,20 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -272,6 +272,12 @@
     <t>0.0000</t>
   </si>
   <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>KEFLEX 1GM 16 TABS.</t>
   </si>
   <si>
@@ -308,9 +314,6 @@
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>57.00</t>
   </si>
   <si>
@@ -437,6 +440,12 @@
     <t>6:0</t>
   </si>
   <si>
+    <t>SHAAN REJUVENITION CREAM 120 GM</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
   </si>
   <si>
@@ -617,7 +626,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 7:03 PM</t>
+    <t>Wednesday, 8 October, 2025 7:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1984,7 +1993,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1994,14 +2003,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2017,7 +2026,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2027,11 +2036,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2043,14 +2052,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2064,7 +2073,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2076,7 +2085,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2093,14 +2102,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2109,14 +2118,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2126,11 +2135,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2142,14 +2151,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2159,14 +2168,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2175,14 +2184,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2192,14 +2201,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2208,28 +2217,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2241,28 +2250,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2274,14 +2283,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2291,11 +2300,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2307,14 +2316,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2324,11 +2333,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2340,14 +2349,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2357,11 +2366,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2373,28 +2382,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2406,31 +2415,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2439,14 +2448,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2456,14 +2465,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2472,31 +2481,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2505,7 +2514,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2518,18 +2527,18 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2538,14 +2547,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2555,14 +2564,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2571,14 +2580,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2588,11 +2597,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2604,7 +2613,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2621,11 +2630,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2637,14 +2646,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2654,14 +2663,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2670,14 +2679,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2687,11 +2696,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2703,14 +2712,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2720,14 +2729,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2736,14 +2745,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2753,11 +2762,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2769,14 +2778,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2786,14 +2795,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2802,14 +2811,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2819,11 +2828,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2835,14 +2844,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2852,11 +2861,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2868,28 +2877,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2901,14 +2910,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2918,14 +2927,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2934,31 +2943,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2967,31 +2976,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3000,31 +3009,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3033,14 +3042,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3050,14 +3059,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3066,14 +3075,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3083,11 +3092,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3106,7 +3115,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3120,10 +3129,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3132,14 +3141,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3149,14 +3158,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3165,14 +3174,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3182,14 +3191,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>141</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3215,14 +3224,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3231,14 +3240,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3248,14 +3257,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3271,7 +3280,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3281,11 +3290,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3297,14 +3306,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3314,11 +3323,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>71</v>
+        <v>190</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3330,14 +3339,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3347,11 +3356,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>15</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3370,7 +3379,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3380,11 +3389,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3403,7 +3412,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3413,11 +3422,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>179</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3429,14 +3438,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3446,49 +3455,115 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>202</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>27</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>44</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>181</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>203</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>204</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>44</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>45</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
         <v>46</v>
       </c>
-      <c t="s" r="Q73" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>3411.5300000000002</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
-        <v>202</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
-        <v>203</v>
-      </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
-        <v>204</v>
-      </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>3613.5300000000002</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>205</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>206</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>207</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3832,10 +3907,20 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -179,6 +179,9 @@
     <t>48.00</t>
   </si>
   <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
@@ -284,6 +287,15 @@
     <t>132.00</t>
   </si>
   <si>
+    <t>KEFLEX 250MG/5ML PD. FOR ORAL SUSP.60ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -524,13 +536,16 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8177:0</t>
+    <t>8173:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
   </si>
   <si>
     <t>ZYRTEC 10MG 20 TAB</t>
@@ -563,6 +578,18 @@
     <t>بادي سبلاش افوفا الصغير</t>
   </si>
   <si>
+    <t>برمنجنات بوتاسيوم</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -626,7 +653,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 7:09 PM</t>
+    <t>Wednesday, 8 October, 2025 7:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1630,7 +1657,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1644,10 +1671,10 @@
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1656,7 +1683,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1673,11 +1700,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1689,7 +1716,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1706,11 +1733,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1722,7 +1749,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1755,7 +1782,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1772,11 +1799,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1788,7 +1815,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1805,11 +1832,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1821,14 +1848,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1838,11 +1865,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1854,7 +1881,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1871,11 +1898,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1887,14 +1914,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1904,11 +1931,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1920,14 +1947,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1937,11 +1964,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1953,7 +1980,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1970,14 +1997,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1986,14 +2013,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2019,14 +2046,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2036,11 +2063,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2052,14 +2079,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2073,10 +2100,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2085,14 +2112,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2102,11 +2129,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2118,7 +2145,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2135,14 +2162,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2151,14 +2178,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2168,11 +2195,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2184,14 +2211,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2208,7 +2235,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2217,14 +2244,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2241,7 +2268,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2250,28 +2277,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2283,28 +2310,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2316,14 +2343,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2333,11 +2360,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2349,14 +2376,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2366,11 +2393,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2382,14 +2409,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2399,11 +2426,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2428,7 +2455,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2436,7 +2463,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2448,31 +2475,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2481,14 +2508,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2498,14 +2525,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2514,31 +2541,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2547,7 +2574,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2560,18 +2587,18 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2580,14 +2607,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2597,14 +2624,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2613,14 +2640,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2630,11 +2657,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2646,14 +2673,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2663,11 +2690,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2679,14 +2706,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2696,11 +2723,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2712,14 +2739,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2729,14 +2756,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2745,14 +2772,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2762,14 +2789,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2778,14 +2805,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2795,14 +2822,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2811,14 +2838,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2828,14 +2855,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2844,14 +2871,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2861,11 +2888,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2877,14 +2904,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2894,11 +2921,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2910,14 +2937,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2927,11 +2954,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2943,28 +2970,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2976,31 +3003,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>65</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3016,7 +3043,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3026,14 +3053,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3042,31 +3069,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3075,14 +3102,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3092,11 +3119,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3108,14 +3135,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3125,14 +3152,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3141,14 +3168,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3158,14 +3185,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3174,14 +3201,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3191,14 +3218,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3207,14 +3234,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3224,14 +3251,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>142</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3240,14 +3267,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3257,14 +3284,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>142</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3273,14 +3300,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3290,14 +3317,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3306,14 +3333,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3323,14 +3350,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>188</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3339,14 +3366,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3356,7 +3383,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3372,14 +3399,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3389,11 +3416,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>71</v>
+        <v>199</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>72</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3405,14 +3432,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3422,11 +3449,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3438,14 +3465,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3455,11 +3482,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3471,14 +3498,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3488,11 +3515,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3504,14 +3531,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3521,49 +3548,115 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>211</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>27</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>44</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>186</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>212</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>213</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>44</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>45</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
         <v>46</v>
       </c>
-      <c t="s" r="Q75" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3613.5300000000002</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>205</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
-        <v>206</v>
-      </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
-        <v>207</v>
-      </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>3716.5300000000002</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>214</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>215</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>216</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3917,10 +4010,20 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -374,6 +374,15 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>NOVACTAM 1500MG VIAL I.M/I.V</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
@@ -503,12 +512,6 @@
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
     <t>TRI-BETAPRONATE CREAM 30 GM</t>
   </si>
   <si>
@@ -653,7 +656,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 7:11 PM</t>
+    <t>Wednesday, 8 October, 2025 7:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2383,7 +2386,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2393,14 +2396,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2409,14 +2412,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2426,11 +2429,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2463,7 +2466,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2475,28 +2478,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2515,24 +2518,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2548,7 +2551,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2565,7 +2568,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2581,13 +2584,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2598,7 +2601,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2620,7 +2623,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2631,7 +2634,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2647,7 +2650,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2657,14 +2660,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2673,14 +2676,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2690,11 +2693,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2706,7 +2709,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2723,7 +2726,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2779,7 +2782,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2793,10 +2796,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2805,14 +2808,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2822,14 +2825,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2845,7 +2848,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2862,7 +2865,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2878,7 +2881,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2895,7 +2898,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2911,7 +2914,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2921,11 +2924,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2937,14 +2940,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2954,11 +2957,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2970,14 +2973,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2987,11 +2990,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3016,15 +3019,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3043,24 +3046,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>178</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3069,14 +3072,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3086,14 +3089,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3102,31 +3105,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3135,14 +3138,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3152,11 +3155,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3168,14 +3171,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3185,14 +3188,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3208,7 +3211,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3218,14 +3221,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3234,14 +3237,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3251,11 +3254,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3267,14 +3270,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3284,14 +3287,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3300,14 +3303,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3317,14 +3320,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>146</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3333,7 +3336,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3350,14 +3353,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3383,14 +3386,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>197</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3406,7 +3409,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3416,11 +3419,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3432,14 +3435,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3449,11 +3452,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3465,14 +3468,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3482,11 +3485,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>72</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3505,7 +3508,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3515,11 +3518,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3531,14 +3534,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3571,7 +3574,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3581,11 +3584,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>187</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3604,7 +3607,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>213</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3614,49 +3617,82 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>213</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>214</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>44</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>45</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
         <v>46</v>
       </c>
-      <c t="s" r="Q77" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>3716.5300000000002</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
-        <v>214</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>3762.5300000000002</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
         <v>215</v>
       </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
         <v>216</v>
       </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>217</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4020,10 +4056,15 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -377,6 +377,9 @@
     <t>NOVACTAM 1500MG VIAL I.M/I.V</t>
   </si>
   <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>46.00</t>
   </si>
   <si>
@@ -413,12 +416,15 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>1:3</t>
+    <t>1:2</t>
   </si>
   <si>
     <t>108.00</t>
   </si>
   <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>PECTIPRO 0.3% SYRUP 90ML</t>
   </si>
   <si>
@@ -641,9 +647,6 @@
     <t>قصافات كبار لوكس</t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -656,7 +659,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 7:16 PM</t>
+    <t>Wednesday, 8 October, 2025 7:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2386,7 +2389,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2396,11 +2399,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2412,7 +2415,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2433,7 +2436,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2445,14 +2448,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2462,7 +2465,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2478,14 +2481,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2495,11 +2498,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2511,14 +2514,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2528,14 +2531,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2544,7 +2547,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2561,11 +2564,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2577,7 +2580,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2594,11 +2597,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2610,7 +2613,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2627,11 +2630,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2643,7 +2646,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2660,11 +2663,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2676,14 +2679,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2709,7 +2712,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2730,7 +2733,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2742,7 +2745,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2759,11 +2762,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2775,7 +2778,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2792,11 +2795,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2808,7 +2811,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2825,7 +2828,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2841,14 +2844,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2858,11 +2861,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2874,7 +2877,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2891,11 +2894,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>27</v>
@@ -2907,7 +2910,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2924,11 +2927,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2940,7 +2943,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2957,11 +2960,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2973,7 +2976,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2990,11 +2993,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3006,7 +3009,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3023,11 +3026,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3039,7 +3042,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3072,14 +3075,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3089,14 +3092,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3105,7 +3108,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3122,11 +3125,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3138,14 +3141,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3155,11 +3158,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3171,14 +3174,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3188,11 +3191,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3204,7 +3207,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3221,7 +3224,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3237,14 +3240,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3254,11 +3257,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3270,14 +3273,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3303,14 +3306,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3320,11 +3323,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>82</v>
@@ -3336,7 +3339,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3353,14 +3356,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>39</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3369,7 +3372,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3386,14 +3389,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3402,7 +3405,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3419,11 +3422,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3435,14 +3438,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3452,11 +3455,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3468,7 +3471,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3485,11 +3488,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3501,7 +3504,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3534,14 +3537,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>210</v>
+        <v>122</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3567,7 +3570,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3600,7 +3603,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3617,11 +3620,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3633,14 +3636,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3662,13 +3665,13 @@
     </row>
     <row r="79" ht="25.5" customHeight="1">
       <c r="P79" s="13">
-        <v>3762.5300000000002</v>
+        <v>3789.5300000000002</v>
       </c>
       <c r="Q79" s="13"/>
     </row>
     <row r="80" ht="16.5" customHeight="1">
       <c t="s" r="A80" s="14">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -3676,13 +3679,13 @@
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
       <c t="s" r="G80" s="15">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
       <c r="J80" s="16"/>
       <c t="s" r="K80" s="17">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L80" s="17"/>
       <c r="M80" s="17"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -467,6 +467,15 @@
     <t>6:0</t>
   </si>
   <si>
+    <t>SHAAN BODY MILK 300ML</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>200.0000</t>
+  </si>
+  <si>
     <t>SHAAN REJUVENITION CREAM 120 GM</t>
   </si>
   <si>
@@ -659,7 +668,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 7:18 PM</t>
+    <t>Wednesday, 8 October, 2025 7:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2725,15 +2734,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2745,7 +2754,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2762,7 +2771,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2818,7 +2827,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2832,10 +2841,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2844,14 +2853,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2861,14 +2870,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2884,7 +2893,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2901,7 +2910,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2917,7 +2926,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2927,14 +2936,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2943,14 +2952,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2960,11 +2969,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2983,7 +2992,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3016,7 +3025,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3026,11 +3035,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3042,7 +3051,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3055,15 +3064,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3075,31 +3084,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>82</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>65</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>181</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3108,14 +3117,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3125,14 +3134,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3141,20 +3150,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3162,10 +3171,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3174,14 +3183,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3214,7 +3223,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3224,14 +3233,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3240,14 +3249,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3257,14 +3266,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3273,14 +3282,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3290,11 +3299,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3306,14 +3315,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3323,14 +3332,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3346,7 +3355,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3356,14 +3365,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>39</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>151</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3372,7 +3381,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3389,11 +3398,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>151</v>
@@ -3405,7 +3414,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3422,14 +3431,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>200</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3438,14 +3447,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3455,11 +3464,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3471,14 +3480,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3488,11 +3497,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3511,7 +3520,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3521,11 +3530,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>72</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3537,14 +3546,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3554,11 +3563,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3570,14 +3579,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3603,14 +3612,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3620,11 +3629,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3636,14 +3645,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>215</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3653,49 +3662,82 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>217</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>218</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>44</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>45</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
         <v>46</v>
       </c>
-      <c t="s" r="Q78" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>3789.5300000000002</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>216</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
-        <v>217</v>
-      </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
-        <v>218</v>
-      </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>3989.5300000000002</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>219</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>220</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>221</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4064,10 +4106,15 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -110,6 +110,15 @@
     <t>105.0000</t>
   </si>
   <si>
+    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>228.0000</t>
+  </si>
+  <si>
     <t>AZROLID 200MG/ 5 ML FOR ORAL 30ML SUSP</t>
   </si>
   <si>
@@ -152,6 +161,18 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>CIPRAPRO 10MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -257,9 +278,6 @@
     <t>GLYCERIN (EL-NILE) INFANTILE 6 SUPP.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>12.00</t>
   </si>
   <si>
@@ -551,6 +569,9 @@
     <t>VENTAMOR FACIAL WASH</t>
   </si>
   <si>
+    <t>VONACIDAN 20 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -668,7 +689,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 7:19 PM</t>
+    <t>Wednesday, 8 October, 2025 7:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1474,7 +1495,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1507,7 +1528,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1517,11 +1538,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1533,14 +1554,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1557,7 +1578,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1573,24 +1594,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1599,28 +1620,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1632,14 +1653,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1672,7 +1693,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1682,14 +1703,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1698,14 +1719,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1715,14 +1736,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1731,7 +1752,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1744,18 +1765,18 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1764,14 +1785,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1781,11 +1802,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1797,31 +1818,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1830,14 +1851,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1847,11 +1868,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1863,20 +1884,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1903,7 +1924,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1969,7 +1990,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1979,11 +2000,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1995,14 +2016,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2019,7 +2040,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2035,7 +2056,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2045,11 +2066,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2061,14 +2082,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2078,14 +2099,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2094,14 +2115,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2111,11 +2132,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2127,14 +2148,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2148,7 +2169,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2167,7 +2188,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2184,7 +2205,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2200,7 +2221,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2210,14 +2231,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2233,7 +2254,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2250,7 +2271,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2266,7 +2287,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2276,14 +2297,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2292,14 +2313,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2309,14 +2330,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2325,31 +2346,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>117</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2365,7 +2386,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2375,7 +2396,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2398,24 +2419,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2424,14 +2445,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2441,7 +2462,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2478,10 +2499,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2490,14 +2511,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2507,11 +2528,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2523,31 +2544,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>119</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2556,14 +2577,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2573,14 +2594,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2589,20 +2610,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2613,7 +2634,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2629,13 +2650,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2662,7 +2683,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2695,21 +2716,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2721,31 +2742,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2754,14 +2775,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2771,11 +2792,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2787,28 +2808,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2820,14 +2841,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2837,7 +2858,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2860,7 +2881,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2874,10 +2895,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2886,14 +2907,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2903,11 +2924,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2919,14 +2940,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2936,14 +2957,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2959,7 +2980,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2969,11 +2990,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2985,14 +3006,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3002,14 +3023,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3018,14 +3039,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3035,11 +3056,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3058,7 +3079,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3068,11 +3089,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3084,28 +3105,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3117,14 +3138,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>51</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3134,14 +3155,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>184</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3157,24 +3178,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3183,28 +3204,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>51</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3216,31 +3237,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3249,31 +3270,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3282,28 +3303,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3315,28 +3336,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3355,24 +3376,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>82</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3381,31 +3402,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>151</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3421,24 +3442,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>151</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3447,31 +3468,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3480,31 +3501,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>51</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>203</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3513,31 +3534,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3546,28 +3567,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>72</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3579,28 +3600,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>122</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3612,28 +3633,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3645,28 +3666,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3678,66 +3699,165 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>218</v>
+        <v>128</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>3989.5300000000002</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
-        <v>219</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
-        <v>220</v>
-      </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
-        <v>221</v>
-      </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>222</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>51</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>47</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>14</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>223</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>27</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>47</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>199</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>224</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>225</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>47</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>48</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>4487.7399999999998</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>226</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>227</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>228</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4111,10 +4231,25 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -203,6 +203,18 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
@@ -413,9 +425,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>2:3</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -548,9 +557,6 @@
     <t>TRI-BETAPRONATE CREAM 30 GM</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>36.0000</t>
   </si>
   <si>
@@ -689,7 +695,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 7:21 PM</t>
+    <t>Wednesday, 8 October, 2025 7:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1792,7 +1798,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1802,14 +1808,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1818,31 +1824,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1851,7 +1857,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1864,18 +1870,18 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1884,28 +1890,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1917,28 +1923,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1950,14 +1956,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1990,7 +1996,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2000,11 +2006,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2016,14 +2022,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2056,7 +2062,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2066,11 +2072,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2082,14 +2088,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2099,14 +2105,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2115,14 +2121,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2132,14 +2138,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2148,14 +2154,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2165,14 +2171,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2181,7 +2187,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2198,14 +2204,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2214,14 +2220,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2235,10 +2241,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2247,14 +2253,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2264,11 +2270,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2280,7 +2286,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2297,14 +2303,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2313,14 +2319,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2330,11 +2336,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2346,14 +2352,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2370,7 +2376,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2379,14 +2385,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2403,7 +2409,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2412,28 +2418,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2445,28 +2451,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2478,14 +2484,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2495,14 +2501,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2518,7 +2524,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2528,14 +2534,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2544,14 +2550,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2561,11 +2567,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2577,14 +2583,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2598,10 +2604,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2610,31 +2616,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>125</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2643,20 +2649,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2667,7 +2673,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2683,7 +2689,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2700,7 +2706,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2716,13 +2722,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2733,7 +2739,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2755,7 +2761,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2766,7 +2772,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2782,7 +2788,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2792,14 +2798,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2808,28 +2814,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2854,15 +2860,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2874,7 +2880,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2891,7 +2897,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2947,7 +2953,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2961,10 +2967,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2973,14 +2979,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2990,14 +2996,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3013,7 +3019,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3030,7 +3036,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3046,7 +3052,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3056,14 +3062,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3072,14 +3078,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3089,11 +3095,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3112,7 +3118,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3122,11 +3128,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>66</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3138,14 +3144,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3155,11 +3161,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3171,7 +3177,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3184,15 +3190,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3204,7 +3210,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3217,15 +3223,15 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3237,14 +3243,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>188</v>
+        <v>51</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3254,14 +3260,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3270,14 +3276,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3287,14 +3293,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3310,24 +3316,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3336,14 +3342,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3353,11 +3359,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3369,14 +3375,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3386,14 +3392,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3402,14 +3408,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3419,14 +3425,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3435,14 +3441,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3452,11 +3458,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3485,14 +3491,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3501,14 +3507,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>51</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3518,14 +3524,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>157</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3551,14 +3557,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3567,7 +3573,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3584,14 +3590,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3600,14 +3606,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>51</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3617,11 +3623,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3640,7 +3646,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3650,11 +3656,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3666,14 +3672,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3683,11 +3689,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3699,14 +3705,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3716,11 +3722,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3732,14 +3738,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3765,14 +3771,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3782,11 +3788,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3798,14 +3804,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3815,49 +3821,82 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>226</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>227</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>47</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>48</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
         <v>49</v>
       </c>
-      <c t="s" r="Q82" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>4487.7399999999998</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>226</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
-        <v>227</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>4524.6199999999999</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
         <v>228</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>229</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>230</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4246,10 +4285,15 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -173,6 +173,15 @@
     <t>78.2100</t>
   </si>
   <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -254,6 +263,15 @@
     <t>104.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>FAYCID HAIR OIL 60 ML</t>
   </si>
   <si>
@@ -296,6 +314,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>GOLDEN LAX SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
   </si>
   <si>
@@ -617,85 +644,88 @@
     <t>20.00</t>
   </si>
   <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>بادي سبلاش افوفا الصغير</t>
+  </si>
+  <si>
+    <t>برمنجنات بوتاسيوم</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>46:0</t>
+  </si>
+  <si>
+    <t>شامبو كلير للرجال 180مل</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>قصافات كبار لوكس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>كريم فيرند لافلي الصغير</t>
+  </si>
+  <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>بادي سبلاش افوفا الصغير</t>
-  </si>
-  <si>
-    <t>برمنجنات بوتاسيوم</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>22:0</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>سرنجات دواء 5 سم</t>
-  </si>
-  <si>
-    <t>46:0</t>
-  </si>
-  <si>
-    <t>شامبو كلير للرجال 180مل</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>صابون ديتول اوريجنيال 115 جم</t>
-  </si>
-  <si>
-    <t>قصافات كبار لوكس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>كريم فيرند لافلي الصغير</t>
-  </si>
-  <si>
     <t>كريم كير اند مور75مل</t>
   </si>
   <si>
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 7:22 PM</t>
+    <t>Wednesday, 8 October, 2025 7:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1699,7 +1729,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1709,11 +1739,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1725,14 +1755,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1749,7 +1779,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1765,7 +1795,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1782,7 +1812,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1798,7 +1828,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1808,14 +1838,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1824,14 +1854,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1848,7 +1878,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1864,13 +1894,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1881,7 +1911,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1903,18 +1933,18 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1923,28 +1953,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1963,13 +1993,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1996,7 +2026,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2006,11 +2036,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2022,14 +2052,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2039,14 +2069,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2055,14 +2085,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2072,11 +2102,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2088,14 +2118,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2105,11 +2135,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2121,14 +2151,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2145,7 +2175,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2161,7 +2191,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2171,11 +2201,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2187,7 +2217,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2204,14 +2234,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2220,14 +2250,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2237,14 +2267,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2253,14 +2283,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2270,14 +2300,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2286,14 +2316,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2303,11 +2333,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2326,7 +2356,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2359,7 +2389,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2369,14 +2399,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2392,7 +2422,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2402,14 +2432,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>121</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2418,14 +2448,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2435,14 +2465,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2451,31 +2481,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2484,14 +2514,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2501,14 +2531,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>130</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2524,7 +2554,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2534,14 +2564,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2550,24 +2580,24 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2590,7 +2620,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2600,14 +2630,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2616,14 +2646,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2633,14 +2663,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2649,31 +2679,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2682,14 +2712,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2699,14 +2729,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2715,14 +2745,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2732,11 +2762,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2748,14 +2778,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2772,7 +2802,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2788,7 +2818,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2805,7 +2835,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2821,7 +2851,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2831,14 +2861,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2847,7 +2877,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2864,11 +2894,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2880,14 +2910,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2897,14 +2927,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2913,14 +2943,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2930,11 +2960,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2946,7 +2976,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2959,15 +2989,15 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2979,14 +3009,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2996,14 +3026,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3012,14 +3042,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3029,11 +3059,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3045,7 +3075,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3062,14 +3092,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3078,14 +3108,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3095,14 +3125,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3111,14 +3141,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3128,11 +3158,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3144,14 +3174,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3161,14 +3191,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3177,14 +3207,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3194,11 +3224,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3210,28 +3240,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3243,14 +3273,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3260,11 +3290,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3276,14 +3306,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>51</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3293,14 +3323,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>193</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3309,31 +3339,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3342,28 +3372,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>197</v>
+        <v>51</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3375,31 +3405,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q69" s="12">
         <v>202</v>
-      </c>
-      <c t="s" r="Q69" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3415,24 +3445,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3441,14 +3471,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3458,11 +3488,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3474,14 +3504,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3491,14 +3521,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3507,14 +3537,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3524,14 +3554,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3547,7 +3577,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>51</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3557,14 +3587,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>42</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>160</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3573,14 +3603,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>51</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3590,14 +3620,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>191</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>193</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3606,14 +3636,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>51</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3623,14 +3653,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3639,14 +3669,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>51</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3656,14 +3686,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3672,14 +3702,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3689,14 +3719,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3705,14 +3735,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3722,11 +3752,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>83</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>84</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3738,14 +3768,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>132</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3755,11 +3785,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3771,14 +3801,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3788,11 +3818,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3804,14 +3834,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3821,11 +3851,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>201</v>
+        <v>89</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>202</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3837,14 +3867,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>227</v>
+        <v>141</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3854,49 +3884,148 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>233</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>51</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>47</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>14</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>234</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>27</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>47</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>210</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>236</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>237</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>47</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>48</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
         <v>49</v>
       </c>
-      <c t="s" r="Q83" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>4524.6199999999999</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>228</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
-        <v>229</v>
-      </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
-        <v>230</v>
-      </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>4726.46</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>238</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>239</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>240</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4290,10 +4419,25 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -242,6 +242,18 @@
     <t>44.5500</t>
   </si>
   <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
   </si>
   <si>
@@ -332,10 +344,25 @@
     <t>0.0000</t>
   </si>
   <si>
+    <t>IROSPECT 20 PIECES</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>IVERZINE 1% LOTION 60 ML</t>
   </si>
   <si>
-    <t>4:0</t>
+    <t>JOMOGESTIVE TAB</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
   </si>
   <si>
     <t>KEFLEX 1GM 16 TABS.</t>
@@ -365,12 +392,6 @@
     <t>LANTOPEP 60 MG 20 CAPS.</t>
   </si>
   <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
   </si>
   <si>
@@ -479,6 +500,15 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>PECTIPRO 0.3% SYRUP 90ML</t>
   </si>
   <si>
@@ -725,7 +755,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 7:42 PM</t>
+    <t>Wednesday, 8 October, 2025 7:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1960,7 +1990,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1970,11 +2000,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1986,28 +2016,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2019,28 +2049,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2052,14 +2082,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2069,14 +2099,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2085,14 +2115,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2102,14 +2132,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2125,7 +2155,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2135,11 +2165,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2151,14 +2181,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2191,7 +2221,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2201,11 +2231,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2217,7 +2247,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2234,11 +2264,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2250,14 +2280,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2267,14 +2297,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2283,14 +2313,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2300,14 +2330,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2316,14 +2346,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2333,11 +2363,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2349,14 +2379,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2366,11 +2396,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2382,20 +2412,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2403,7 +2433,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2415,14 +2445,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2432,11 +2462,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2455,7 +2485,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2488,7 +2518,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2498,14 +2528,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2521,7 +2551,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2531,14 +2561,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>130</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2547,14 +2577,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2564,14 +2594,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2580,31 +2610,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2613,14 +2643,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2630,14 +2660,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2646,14 +2676,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2663,14 +2693,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2679,28 +2709,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2712,14 +2742,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2729,14 +2759,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>138</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2745,14 +2775,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2762,14 +2792,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2778,31 +2808,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>138</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2811,14 +2841,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2828,14 +2858,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2844,14 +2874,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2861,11 +2891,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2877,14 +2907,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2894,14 +2924,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2910,7 +2940,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2927,11 +2957,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2943,14 +2973,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2960,11 +2990,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2976,31 +3006,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3009,7 +3039,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3022,11 +3052,11 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3049,7 +3079,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3066,7 +3096,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3082,7 +3112,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3092,11 +3122,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3108,31 +3138,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3148,7 +3178,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3158,11 +3188,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3174,7 +3204,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3191,14 +3221,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3207,14 +3237,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3224,11 +3254,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3240,14 +3270,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3257,14 +3287,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3273,14 +3303,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3290,11 +3320,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3306,7 +3336,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3323,14 +3353,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3339,28 +3369,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3372,14 +3402,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3389,11 +3419,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3405,14 +3435,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3422,14 +3452,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3438,14 +3468,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3455,14 +3485,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3471,14 +3501,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>51</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3488,11 +3518,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3504,31 +3534,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3537,31 +3567,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>32</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3577,24 +3607,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3603,14 +3633,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3620,11 +3650,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>15</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3643,7 +3673,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3653,14 +3683,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3676,7 +3706,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3686,14 +3716,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>169</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3702,14 +3732,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>51</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3719,14 +3749,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3735,14 +3765,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>51</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3752,11 +3782,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3768,14 +3798,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3785,14 +3815,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3801,14 +3831,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3818,14 +3848,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3834,14 +3864,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3851,14 +3881,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3867,14 +3897,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3884,11 +3914,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>15</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3900,14 +3930,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3917,11 +3947,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>15</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3933,14 +3963,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3950,11 +3980,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -3966,14 +3996,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3983,49 +4013,181 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>242</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>148</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>47</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>14</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>243</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>51</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>47</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>14</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>244</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>27</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>47</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>220</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>246</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>247</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>47</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>48</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
         <v>49</v>
       </c>
-      <c t="s" r="Q86" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>4726.46</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>238</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
-        <v>239</v>
-      </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
-        <v>240</v>
-      </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>4962.46</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>248</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>249</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>250</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4434,10 +4596,30 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -275,6 +275,18 @@
     <t>104.0000</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>5:9</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -335,6 +347,15 @@
     <t>68.0000</t>
   </si>
   <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>259.00</t>
+  </si>
+  <si>
+    <t>259.0000</t>
+  </si>
+  <si>
     <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
   </si>
   <si>
@@ -494,9 +515,6 @@
     <t>1:2</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>54.0000</t>
   </si>
   <si>
@@ -755,7 +773,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 7:44 PM</t>
+    <t>Wednesday, 8 October, 2025 8:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2132,14 +2150,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2148,14 +2166,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2165,14 +2183,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2188,7 +2206,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2198,11 +2216,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2214,14 +2232,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2254,7 +2272,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2264,11 +2282,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2280,7 +2298,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2297,11 +2315,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2313,14 +2331,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2330,14 +2348,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2346,14 +2364,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2363,14 +2381,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2379,14 +2397,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2396,14 +2414,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2412,28 +2430,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2445,14 +2463,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2462,14 +2480,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2478,7 +2496,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2491,18 +2509,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2511,14 +2529,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2528,11 +2546,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2544,14 +2562,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2561,14 +2579,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2577,14 +2595,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2594,14 +2612,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2610,14 +2628,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2627,14 +2645,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2643,14 +2661,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2667,7 +2685,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2676,14 +2694,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2693,14 +2711,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2709,20 +2727,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2733,7 +2751,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2742,14 +2760,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2759,11 +2777,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2775,20 +2793,20 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2799,7 +2817,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2815,7 +2833,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2825,11 +2843,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2841,14 +2859,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2858,14 +2876,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2874,14 +2892,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2891,11 +2909,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2907,20 +2925,20 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2928,10 +2946,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2940,14 +2958,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2980,24 +2998,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3013,7 +3031,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3052,7 +3070,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3079,7 +3097,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3112,21 +3130,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3138,31 +3156,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3171,14 +3189,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3188,11 +3206,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3204,7 +3222,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3217,15 +3235,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3237,7 +3255,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3254,7 +3272,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3277,7 +3295,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3291,10 +3309,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3303,14 +3321,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3320,11 +3338,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3336,14 +3354,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3353,14 +3371,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3376,7 +3394,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3386,11 +3404,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3402,14 +3420,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3419,14 +3437,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3435,14 +3453,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3452,11 +3470,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3468,14 +3486,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3485,11 +3503,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3501,28 +3519,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>84</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3534,7 +3552,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3551,11 +3569,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3567,31 +3585,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>51</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>83</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>212</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3607,7 +3625,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3617,14 +3635,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3633,31 +3651,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q75" s="12">
         <v>218</v>
-      </c>
-      <c t="s" r="Q75" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3673,13 +3691,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3687,10 +3705,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3699,14 +3717,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3716,14 +3734,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>32</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3732,14 +3750,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3749,14 +3767,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3765,14 +3783,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3782,14 +3800,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3815,14 +3833,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3831,14 +3849,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>51</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3848,14 +3866,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>179</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3864,14 +3882,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>51</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3881,14 +3899,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>212</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3897,7 +3915,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3914,14 +3932,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3930,14 +3948,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>237</v>
+        <v>51</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3947,14 +3965,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3963,14 +3981,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3984,7 +4002,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -3996,14 +4014,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4013,11 +4031,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>93</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>94</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4029,14 +4047,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4046,11 +4064,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>15</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4062,14 +4080,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4079,11 +4097,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4095,14 +4113,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4112,11 +4130,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>220</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4128,14 +4146,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>247</v>
+        <v>51</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4145,49 +4163,115 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>250</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>27</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>47</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>226</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>252</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>253</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>47</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>48</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
         <v>49</v>
       </c>
-      <c t="s" r="Q90" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>4962.46</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>248</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
-        <v>249</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
-        <v>250</v>
-      </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>5248.46</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>254</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>255</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>256</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4616,10 +4700,20 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -149,6 +149,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>BUDELIZER 400MCG 60 INH. CAPS. +INHALER DEVICE</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>40.8000</t>
+  </si>
+  <si>
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
@@ -491,6 +500,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -689,9 +707,6 @@
     <t>ايزي سويت 3 قطع</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
@@ -764,16 +779,13 @@
     <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>كريم كير اند مور75مل</t>
   </si>
   <si>
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 8:00 PM</t>
+    <t>Wednesday, 8 October, 2025 8:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1711,24 +1723,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1737,31 +1749,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1770,14 +1782,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1794,7 +1806,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1810,7 +1822,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1820,11 +1832,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1836,14 +1848,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1860,7 +1872,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1876,7 +1888,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1893,7 +1905,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1909,7 +1921,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1919,14 +1931,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1935,14 +1947,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1959,7 +1971,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1975,13 +1987,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1992,7 +2004,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2008,24 +2020,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2034,14 +2046,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2051,11 +2063,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2067,28 +2079,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2107,13 +2119,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2140,7 +2152,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2150,14 +2162,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2166,14 +2178,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2183,14 +2195,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>94</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2216,14 +2228,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2232,14 +2244,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2272,7 +2284,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2282,11 +2294,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2298,14 +2310,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2338,7 +2350,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2371,7 +2383,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2404,7 +2416,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2421,7 +2433,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2437,7 +2449,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2454,7 +2466,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2470,7 +2482,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2480,14 +2492,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2496,31 +2508,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2536,13 +2548,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2550,7 +2562,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2562,14 +2574,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2579,14 +2591,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2602,7 +2614,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2612,14 +2624,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2635,7 +2647,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2645,11 +2657,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2661,7 +2673,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2678,14 +2690,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2701,7 +2713,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2734,7 +2746,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2744,14 +2756,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2760,14 +2772,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2777,14 +2789,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>147</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2800,13 +2812,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2833,17 +2845,17 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2876,14 +2888,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2892,14 +2904,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2909,14 +2921,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2925,14 +2937,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2942,14 +2954,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>152</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2958,14 +2970,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2982,7 +2994,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2998,24 +3010,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3024,14 +3036,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3064,24 +3076,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3097,7 +3109,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3130,13 +3142,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3163,7 +3175,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3196,21 +3208,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>15</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3222,31 +3234,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3255,14 +3267,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>51</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3272,11 +3284,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3288,28 +3300,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3321,14 +3333,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3338,7 +3350,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3361,7 +3373,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3375,10 +3387,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>38</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3387,14 +3399,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3404,11 +3416,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3420,14 +3432,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3437,14 +3449,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3460,7 +3472,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3470,11 +3482,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3486,14 +3498,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3503,14 +3515,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3519,14 +3531,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3536,11 +3548,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3552,14 +3564,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3569,11 +3581,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>179</v>
+        <v>72</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3585,28 +3597,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3618,14 +3630,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3635,11 +3647,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3651,31 +3663,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>54</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>86</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>218</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3691,7 +3703,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3701,14 +3713,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3717,31 +3729,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>224</v>
-      </c>
-      <c t="s" r="Q77" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3757,13 +3769,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3771,10 +3783,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3783,31 +3795,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3816,31 +3828,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>164</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3856,24 +3868,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3882,31 +3894,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3922,24 +3934,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>51</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>185</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3955,24 +3967,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>51</v>
+        <v>241</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>218</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3981,31 +3993,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4014,31 +4026,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4047,28 +4059,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4087,21 +4099,21 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>97</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>98</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4113,28 +4125,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>15</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4146,28 +4158,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4179,28 +4191,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4212,66 +4224,132 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>253</v>
+        <v>54</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>5248.46</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>254</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
         <v>255</v>
       </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>27</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>50</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>164</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
         <v>256</v>
       </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>257</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>50</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>51</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>5309.2600000000002</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>258</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>259</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>260</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4710,10 +4788,20 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -419,6 +419,15 @@
     <t>60.00</t>
   </si>
   <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>LANTOPEP 60 MG 20 CAPS.</t>
   </si>
   <si>
@@ -785,7 +794,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 8:09 PM</t>
+    <t>Wednesday, 8 October, 2025 8:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2690,14 +2699,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2706,7 +2715,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2723,14 +2732,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2746,7 +2755,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2779,7 +2788,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2789,14 +2798,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>147</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2805,14 +2814,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2822,14 +2831,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>150</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2845,13 +2854,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2878,17 +2887,17 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2921,14 +2930,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2937,14 +2946,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2954,14 +2963,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2970,14 +2979,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2987,14 +2996,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3010,7 +3019,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3024,10 +3033,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>155</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3036,14 +3045,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3057,10 +3066,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3069,31 +3078,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>155</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3109,24 +3118,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3142,7 +3151,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3159,7 +3168,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3175,7 +3184,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3192,7 +3201,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3208,13 +3217,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3225,7 +3234,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3241,13 +3250,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3258,7 +3267,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3274,7 +3283,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3284,14 +3293,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3300,28 +3309,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>54</v>
+        <v>194</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3346,15 +3355,15 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3366,7 +3375,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3383,7 +3392,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3439,7 +3448,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3453,10 +3462,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3465,14 +3474,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3482,14 +3491,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3505,7 +3514,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>54</v>
+        <v>194</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3522,7 +3531,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3538,7 +3547,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3548,14 +3557,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3564,14 +3573,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3581,11 +3590,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3597,14 +3606,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3614,7 +3623,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>72</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3637,7 +3646,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3647,11 +3656,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3663,7 +3672,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3676,15 +3685,15 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3696,7 +3705,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3709,15 +3718,15 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>201</v>
+        <v>86</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>202</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3729,14 +3738,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>54</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3746,14 +3755,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>224</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3762,14 +3771,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3779,14 +3788,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3795,20 +3804,20 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3816,10 +3825,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3828,14 +3837,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3845,14 +3854,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>164</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3861,14 +3870,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3878,14 +3887,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>32</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3894,14 +3903,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3911,14 +3920,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3927,14 +3936,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3944,11 +3953,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3960,14 +3969,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3977,14 +3986,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4000,7 +4009,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>54</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4010,14 +4019,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>42</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>191</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4026,7 +4035,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4043,14 +4052,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>224</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4059,7 +4068,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4076,14 +4085,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4092,14 +4101,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>54</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4109,11 +4118,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4125,14 +4134,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4142,11 +4151,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4165,7 +4174,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4175,11 +4184,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>100</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>101</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4191,14 +4200,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4208,11 +4217,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4224,14 +4233,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4257,14 +4266,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4274,11 +4283,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4290,14 +4299,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>257</v>
+        <v>27</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4307,49 +4316,82 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>259</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>260</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>50</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>51</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
         <v>52</v>
       </c>
-      <c t="s" r="Q94" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>5309.2600000000002</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>258</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>259</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
-        <v>260</v>
-      </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>5358.2600000000002</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>261</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>262</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>263</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4798,10 +4840,15 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -263,9 +263,27 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>DIGEST EZE 20 CAPS</t>
+  </si>
+  <si>
+    <t>94.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
     <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
   </si>
   <si>
+    <t>DIXVIT 10.000 I.U. 30 TABS.</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
     <t>ENERZAD EXTRA</t>
   </si>
   <si>
@@ -284,6 +302,15 @@
     <t>104.0000</t>
   </si>
   <si>
+    <t>E-YEAST 20 CAPS</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>62.5000</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -389,9 +416,6 @@
     <t>JOMOGESTIVE TAB</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
     <t>60.0000</t>
   </si>
   <si>
@@ -656,6 +680,9 @@
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>TRI-BETAPRONATE CREAM 30 GM</t>
   </si>
   <si>
@@ -794,7 +821,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 8:11 PM</t>
+    <t>Wednesday, 8 October, 2025 8:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2095,7 +2122,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2105,14 +2132,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2121,28 +2148,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2161,7 +2188,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2178,7 +2205,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2194,24 +2221,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2220,14 +2247,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2237,14 +2264,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2253,14 +2280,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2270,14 +2297,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2286,14 +2313,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2303,14 +2330,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2319,14 +2346,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2336,14 +2363,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2352,14 +2379,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2369,11 +2396,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2385,14 +2412,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2402,11 +2429,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2418,14 +2445,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2458,7 +2485,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2475,7 +2502,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2491,7 +2518,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2508,7 +2535,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2524,7 +2551,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2534,11 +2561,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2550,31 +2577,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2583,14 +2610,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2600,11 +2627,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2616,14 +2643,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2633,11 +2660,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2649,28 +2676,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2689,7 +2716,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2703,10 +2730,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2715,14 +2742,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2732,14 +2759,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2748,14 +2775,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2765,14 +2792,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2781,14 +2808,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2798,11 +2825,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2814,14 +2841,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2831,14 +2858,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>150</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2847,14 +2874,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2864,14 +2891,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2880,31 +2907,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2913,14 +2940,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2930,14 +2957,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2946,14 +2973,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2963,14 +2990,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2979,28 +3006,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3012,14 +3039,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3029,14 +3056,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3045,14 +3072,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3066,10 +3093,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3078,14 +3105,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>54</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3095,11 +3122,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3111,31 +3138,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3144,14 +3171,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3161,14 +3188,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3177,14 +3204,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3194,14 +3221,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3210,31 +3237,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3243,31 +3270,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3276,14 +3303,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3293,14 +3320,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3309,14 +3336,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3326,14 +3353,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3382,7 +3409,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3392,14 +3419,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3408,14 +3435,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3425,11 +3452,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3454,7 +3481,7 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3481,7 +3508,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3491,14 +3518,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3514,7 +3541,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3564,7 +3591,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3580,7 +3607,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3590,14 +3617,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3606,14 +3633,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3623,11 +3650,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>72</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3639,14 +3666,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3656,14 +3683,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3672,14 +3699,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3689,14 +3716,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3705,28 +3732,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>87</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3738,14 +3765,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3755,11 +3782,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3771,14 +3798,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>54</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3788,14 +3815,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>227</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3804,31 +3831,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>92</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3837,28 +3864,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>54</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3870,31 +3897,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>27</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3903,31 +3930,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>32</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3936,14 +3963,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3953,11 +3980,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3969,14 +3996,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3986,14 +4013,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4002,14 +4029,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4019,14 +4046,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>167</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4042,7 +4069,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>54</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4052,14 +4079,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>194</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4068,14 +4095,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>54</v>
+        <v>251</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4085,14 +4112,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>226</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>227</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4101,14 +4128,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>54</v>
+        <v>253</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4118,14 +4145,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>175</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4134,14 +4161,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>54</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4151,14 +4178,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4167,14 +4194,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4184,14 +4211,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4200,14 +4227,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4217,11 +4244,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>101</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4233,14 +4260,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>161</v>
+        <v>260</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4250,11 +4277,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4266,14 +4293,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4283,11 +4310,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>15</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4299,14 +4326,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4316,11 +4343,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4332,14 +4359,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>260</v>
+        <v>169</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4349,49 +4376,148 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>266</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>54</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>50</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>14</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>267</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>27</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>50</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>175</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>268</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>269</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>50</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>51</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
         <v>52</v>
       </c>
-      <c t="s" r="Q95" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>5358.2600000000002</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
-        <v>261</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
-        <v>262</v>
-      </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
-        <v>263</v>
-      </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>5530.3599999999997</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>270</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>271</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>272</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4845,10 +4971,25 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -62,6 +62,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALKAPRESS PLUS 5/160MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
@@ -449,7 +458,7 @@
     <t>49.00</t>
   </si>
   <si>
-    <t>49.0000</t>
+    <t>98.0000</t>
   </si>
   <si>
     <t>LANTOPEP 60 MG 20 CAPS.</t>
@@ -797,15 +806,15 @@
     <t>شامبو كلير للرجال 180مل</t>
   </si>
   <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
+    <t>فازلين بيور كبير</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
     <t>قصافات كبار لوكس</t>
   </si>
   <si>
@@ -821,7 +830,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 8:12 PM</t>
+    <t>Wednesday, 8 October, 2025 8:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1495,7 +1504,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1505,14 +1514,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1521,14 +1530,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1538,14 +1547,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1554,14 +1563,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1571,14 +1580,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1587,14 +1596,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1611,7 +1620,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1627,7 +1636,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1644,7 +1653,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1660,7 +1669,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1693,7 +1702,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1703,11 +1712,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1719,14 +1728,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1743,7 +1752,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1759,7 +1768,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1776,7 +1785,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1792,24 +1801,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1818,31 +1827,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1851,14 +1860,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1875,7 +1884,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1891,7 +1900,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1901,11 +1910,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1917,14 +1926,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1941,7 +1950,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1957,7 +1966,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1974,7 +1983,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1990,7 +1999,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2000,14 +2009,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2016,14 +2025,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2040,7 +2049,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2056,13 +2065,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2073,7 +2082,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2089,24 +2098,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2115,14 +2124,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2139,7 +2148,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2155,7 +2164,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2165,14 +2174,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2181,14 +2190,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2198,14 +2207,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2221,13 +2230,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2238,7 +2247,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2254,13 +2263,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2287,7 +2296,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2304,7 +2313,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2320,7 +2329,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2330,14 +2339,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>103</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2346,14 +2355,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2363,14 +2372,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>106</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2396,14 +2405,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2412,14 +2421,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2452,7 +2461,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2462,11 +2471,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2478,14 +2487,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2518,7 +2527,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2551,7 +2560,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2584,7 +2593,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2601,7 +2610,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2617,7 +2626,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2634,7 +2643,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2650,7 +2659,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2660,14 +2669,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2676,31 +2685,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2709,31 +2718,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2742,14 +2751,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2759,14 +2768,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2782,7 +2791,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2792,14 +2801,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2815,7 +2824,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2825,14 +2834,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2848,7 +2857,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2858,14 +2867,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2874,7 +2883,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2891,14 +2900,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2914,7 +2923,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2947,7 +2956,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2957,14 +2966,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2973,14 +2982,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2990,14 +2999,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>161</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3013,13 +3022,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3030,7 +3039,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3046,24 +3055,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3089,14 +3098,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3105,14 +3114,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3122,14 +3131,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3138,14 +3147,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3155,14 +3164,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3178,7 +3187,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3192,10 +3201,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>166</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3204,14 +3213,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3225,10 +3234,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3237,31 +3246,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>166</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3277,24 +3286,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3310,7 +3319,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3327,7 +3336,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3343,7 +3352,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3360,7 +3369,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3376,13 +3385,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3393,7 +3402,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3409,13 +3418,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3426,7 +3435,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3442,7 +3451,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3452,14 +3461,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3468,28 +3477,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>54</v>
+        <v>205</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3508,21 +3517,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3534,14 +3543,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3551,7 +3560,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3574,7 +3583,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3607,7 +3616,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3621,10 +3630,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3633,14 +3642,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>202</v>
+        <v>24</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3650,14 +3659,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3673,7 +3682,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>54</v>
+        <v>205</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3690,7 +3699,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3706,7 +3715,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3716,14 +3725,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3732,14 +3741,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3749,14 +3758,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3765,14 +3774,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3782,7 +3791,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3805,7 +3814,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3815,11 +3824,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3831,28 +3840,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>92</v>
+        <v>199</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3864,28 +3873,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>212</v>
+        <v>95</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3897,14 +3906,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>57</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3914,14 +3923,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>236</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3930,14 +3939,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3947,14 +3956,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3963,20 +3972,20 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -3984,10 +3993,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3996,31 +4005,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>40</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>175</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4029,31 +4038,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>178</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4062,31 +4071,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4095,28 +4104,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4128,31 +4137,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4168,24 +4177,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>54</v>
+        <v>256</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>42</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>202</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4194,31 +4203,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>236</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4227,31 +4236,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4260,28 +4269,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>260</v>
+        <v>57</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4293,28 +4302,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>263</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4333,21 +4342,21 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4366,21 +4375,21 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4399,21 +4408,21 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>54</v>
+        <v>250</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>14</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>15</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4425,28 +4434,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4458,66 +4467,132 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>269</v>
+        <v>57</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>5530.3599999999997</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
         <v>270</v>
       </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>30</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>53</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>178</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
         <v>271</v>
       </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
         <v>272</v>
       </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>53</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>54</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>5711.3599999999997</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>273</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>274</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>275</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4986,10 +5061,20 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -830,7 +830,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 8:14 PM</t>
+    <t>Wednesday, 8 October, 2025 8:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -293,6 +293,15 @@
     <t>39.6000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>ENERZAD EXTRA</t>
   </si>
   <si>
@@ -605,6 +614,15 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>REGIMAX 120MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
     <t>RICHI PANTHENOL ADVANCE GEL</t>
   </si>
   <si>
@@ -707,12 +725,33 @@
     <t>53.0000</t>
   </si>
   <si>
+    <t>URSOPLUS 20 CAP.</t>
+  </si>
+  <si>
+    <t>174.00</t>
+  </si>
+  <si>
+    <t>174.0000</t>
+  </si>
+  <si>
     <t>VENTAMOR BLACK CHARCOAL SOAP 100 GM</t>
   </si>
   <si>
     <t>VENTAMOR FACIAL WASH</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>VONACIDAN 20 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -794,6 +833,9 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -806,6 +848,12 @@
     <t>شامبو كلير للرجال 180مل</t>
   </si>
   <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -830,7 +878,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 8:15 PM</t>
+    <t>Wednesday, 8 October, 2025 8:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2263,24 +2311,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2296,13 +2344,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2329,7 +2377,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2346,7 +2394,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2362,7 +2410,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2372,14 +2420,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>106</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2388,14 +2436,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2405,14 +2453,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>109</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2438,14 +2486,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2454,14 +2502,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2494,7 +2542,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2504,11 +2552,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2520,14 +2568,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2593,7 +2641,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2626,7 +2674,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2643,7 +2691,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2659,7 +2707,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2676,7 +2724,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2692,7 +2740,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2702,14 +2750,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2718,31 +2766,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2751,7 +2799,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2764,15 +2812,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>24</v>
@@ -2784,7 +2832,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2801,14 +2849,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2824,7 +2872,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2834,14 +2882,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2857,7 +2905,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2867,14 +2915,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2890,7 +2938,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2900,14 +2948,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2916,7 +2964,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2933,14 +2981,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2956,7 +3004,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2989,7 +3037,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2999,14 +3047,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>161</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3015,14 +3063,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3032,14 +3080,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>164</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3055,13 +3103,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3088,17 +3136,17 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3131,14 +3179,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3147,14 +3195,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3164,14 +3212,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3180,14 +3228,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3197,14 +3245,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3220,7 +3268,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3234,10 +3282,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>169</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3246,14 +3294,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3267,10 +3315,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>24</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3279,31 +3327,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>105</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>169</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3319,24 +3367,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>24</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3352,7 +3400,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3369,7 +3417,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3385,7 +3433,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3402,7 +3450,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3418,13 +3466,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3435,7 +3483,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3451,7 +3499,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3484,21 +3532,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>205</v>
+        <v>57</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3510,31 +3558,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3543,14 +3591,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>57</v>
+        <v>211</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3560,11 +3608,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3576,7 +3624,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3589,15 +3637,15 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3609,7 +3657,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3626,7 +3674,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3649,7 +3697,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3663,10 +3711,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3675,14 +3723,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>205</v>
+        <v>57</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3692,11 +3740,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3708,14 +3756,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3725,14 +3773,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3748,7 +3796,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3758,14 +3806,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3774,14 +3822,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3791,14 +3839,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3807,14 +3855,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3824,14 +3872,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3840,14 +3888,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3857,11 +3905,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3873,28 +3921,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>95</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>96</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3906,7 +3954,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3923,11 +3971,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3939,14 +3987,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>57</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3956,14 +4004,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>239</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3972,31 +4020,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>98</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>221</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4005,31 +4053,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4038,31 +4086,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4078,24 +4126,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>249</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>35</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4104,31 +4152,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4137,14 +4185,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4154,11 +4202,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>14</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4170,14 +4218,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>256</v>
+        <v>43</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4187,14 +4235,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4203,14 +4251,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4220,14 +4268,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>205</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4236,14 +4284,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>57</v>
+        <v>263</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4253,14 +4301,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>116</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>250</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4269,14 +4317,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>57</v>
+        <v>267</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4286,11 +4334,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4302,14 +4350,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4319,14 +4367,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>181</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4335,14 +4383,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4352,14 +4400,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4368,14 +4416,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4385,14 +4433,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>113</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4401,14 +4449,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>250</v>
+        <v>57</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4418,11 +4466,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4434,14 +4482,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>172</v>
+        <v>277</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4451,11 +4499,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>14</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>15</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4467,14 +4515,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4484,11 +4532,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4500,14 +4548,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4517,11 +4565,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4533,14 +4581,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>272</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4550,49 +4598,214 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>282</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>263</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>53</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>283</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>284</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>175</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>53</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>14</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>285</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>57</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>53</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>14</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>286</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>30</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>53</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>181</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>287</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>288</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>53</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>54</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
         <v>55</v>
       </c>
-      <c t="s" r="Q100" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>5711.3599999999997</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>273</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>274</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
-        <v>275</v>
-      </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>6019.2299999999996</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>289</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>290</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>291</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5071,10 +5284,35 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -74,93 +74,99 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>ANTINAL 200MG 24 CAPSULES</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>228.0000</t>
+  </si>
+  <si>
+    <t>AZROLID 200MG/ 5 ML FOR ORAL 30ML SUSP</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>BUDELIZER 400MCG 60 INH. CAPS. +INHALER DEVICE</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>ANTINAL 200MG 24 CAPSULES</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>228.00</t>
-  </si>
-  <si>
-    <t>228.0000</t>
-  </si>
-  <si>
-    <t>AZROLID 200MG/ 5 ML FOR ORAL 30ML SUSP</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>BETADERM 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>BUDELIZER 400MCG 60 INH. CAPS. +INHALER DEVICE</t>
-  </si>
-  <si>
     <t>255.00</t>
   </si>
   <si>
@@ -320,6 +326,15 @@
     <t>104.0000</t>
   </si>
   <si>
+    <t>EXTRAUMA DNA CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>E-YEAST 20 CAPS</t>
   </si>
   <si>
@@ -374,9 +389,6 @@
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>66.00</t>
   </si>
   <si>
@@ -410,6 +422,12 @@
     <t>259.0000</t>
   </si>
   <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
   </si>
   <si>
@@ -527,9 +545,6 @@
     <t>NORMOCARD 5MG 30 TAB.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>17.8200</t>
   </si>
   <si>
@@ -833,9 +848,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>28.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -878,7 +890,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 8:25 PM</t>
+    <t>Wednesday, 8 October, 2025 8:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1701,7 +1713,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1710,14 +1722,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1727,11 +1739,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1743,7 +1755,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1760,11 +1772,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1776,14 +1788,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1793,11 +1805,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1809,14 +1821,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1826,14 +1838,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1842,14 +1854,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1859,14 +1871,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1875,7 +1887,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1888,15 +1900,15 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1908,14 +1920,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1925,14 +1937,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1941,14 +1953,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1958,11 +1970,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1974,14 +1986,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1991,11 +2003,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2007,14 +2019,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2024,14 +2036,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2040,7 +2052,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2057,11 +2069,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>30</v>
@@ -2073,14 +2085,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2090,14 +2102,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2106,7 +2118,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2123,11 +2135,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2139,7 +2151,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2152,18 +2164,18 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2172,14 +2184,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2189,11 +2201,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2205,14 +2217,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2222,14 +2234,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2238,7 +2250,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2255,11 +2267,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2271,7 +2283,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2288,14 +2300,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2304,14 +2316,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2321,14 +2333,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2337,7 +2349,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2350,15 +2362,15 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2370,14 +2382,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2387,11 +2399,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2403,14 +2415,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2420,14 +2432,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2436,14 +2448,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2453,14 +2465,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>109</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2469,14 +2481,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2486,14 +2498,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2502,14 +2514,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2519,14 +2531,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2535,14 +2547,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2552,11 +2564,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2568,14 +2580,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2585,11 +2597,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2601,14 +2613,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2618,11 +2630,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2634,14 +2646,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2651,11 +2663,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2667,14 +2679,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2684,11 +2696,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2700,14 +2712,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2717,14 +2729,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2733,14 +2745,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2750,14 +2762,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2773,7 +2785,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2783,14 +2795,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2799,31 +2811,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2832,14 +2844,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2849,14 +2861,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2865,31 +2877,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2898,14 +2910,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2919,10 +2931,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2938,7 +2950,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2955,7 +2967,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2971,7 +2983,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2981,14 +2993,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2997,14 +3009,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3014,14 +3026,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3030,14 +3042,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3047,14 +3059,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3070,7 +3082,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3080,14 +3092,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>164</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3096,14 +3108,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3113,14 +3125,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3129,31 +3141,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>170</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3169,7 +3181,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3179,14 +3191,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3202,24 +3214,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3228,14 +3240,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3245,14 +3257,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3261,14 +3273,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3301,7 +3313,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3311,14 +3323,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>172</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3334,7 +3346,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>51</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3344,14 +3356,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3360,31 +3372,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>172</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3393,14 +3405,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3410,14 +3422,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3426,31 +3438,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>57</v>
+        <v>195</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>113</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3459,14 +3471,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3476,14 +3488,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3492,14 +3504,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3509,14 +3521,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3525,31 +3537,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3558,14 +3570,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3575,14 +3587,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3591,28 +3603,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>211</v>
+        <v>59</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3631,13 +3643,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3648,7 +3660,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3664,7 +3676,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>57</v>
+        <v>216</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3674,11 +3686,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3697,13 +3709,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3730,7 +3742,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3740,11 +3752,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3756,14 +3768,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3773,14 +3785,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3796,7 +3808,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>211</v>
+        <v>59</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3829,7 +3841,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3843,10 +3855,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3855,14 +3867,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>216</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3872,14 +3884,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>176</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3895,7 +3907,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3905,14 +3917,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3921,14 +3933,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3938,14 +3950,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3961,7 +3973,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3971,11 +3983,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3987,14 +3999,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4004,11 +4016,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4020,28 +4032,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>98</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>99</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4053,14 +4065,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>244</v>
+        <v>59</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4070,14 +4082,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4093,21 +4105,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>221</v>
+        <v>100</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>222</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4143,7 +4155,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>252</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4152,14 +4164,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4169,14 +4181,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>227</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4185,31 +4197,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4218,31 +4230,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>181</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4251,31 +4263,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>261</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>35</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4284,31 +4296,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>263</v>
+        <v>44</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>186</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4324,24 +4336,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>267</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4350,31 +4362,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>181</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4390,24 +4402,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>57</v>
+        <v>272</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>272</v>
+        <v>14</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>211</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4423,24 +4435,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>57</v>
+        <v>274</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4449,31 +4461,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4482,31 +4494,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>277</v>
+        <v>59</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4515,28 +4527,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>18</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>19</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4548,28 +4560,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>181</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>182</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4581,28 +4593,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4614,28 +4626,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>186</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>260</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4647,28 +4659,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4680,28 +4692,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>57</v>
+        <v>268</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>15</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4713,28 +4725,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4746,66 +4758,132 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>288</v>
+        <v>59</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>290</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>30</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
         <v>55</v>
       </c>
-      <c t="s" r="Q105" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>6019.2299999999996</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>289</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
-        <v>290</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>186</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
         <v>291</v>
       </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>292</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>55</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>56</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>6109.9399999999996</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>293</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>294</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>295</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5309,10 +5387,20 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -890,7 +890,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 8:29 PM</t>
+    <t>Wednesday, 8 October, 2025 8:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -845,6 +845,18 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>حفاضات كبار سن جير ميني 36ق</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>22.5000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -890,7 +902,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 8:30 PM</t>
+    <t>Wednesday, 8 October, 2025 8:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4501,7 +4513,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>59</v>
+        <v>279</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4511,14 +4523,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>107</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4527,7 +4539,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4544,14 +4556,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4560,14 +4572,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>281</v>
+        <v>59</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4593,14 +4605,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>51</v>
+        <v>285</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4610,11 +4622,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>18</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>19</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4626,14 +4638,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>284</v>
+        <v>51</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4643,11 +4655,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4659,14 +4671,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>288</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4676,11 +4688,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4692,14 +4704,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>268</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4709,11 +4721,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>120</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>265</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4725,14 +4737,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>180</v>
+        <v>268</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4742,11 +4754,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>15</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4758,14 +4770,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4791,14 +4803,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4808,11 +4820,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>187</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4824,14 +4836,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>292</v>
+        <v>30</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4841,49 +4853,82 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>56</v>
+        <v>186</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>295</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>296</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>55</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>56</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
         <v>57</v>
       </c>
-      <c t="s" r="Q107" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>6109.9399999999996</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>293</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
-        <v>294</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
-        <v>295</v>
-      </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>6132.4399999999996</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>297</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>298</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>299</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5397,10 +5442,15 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>ALVERINSPASM 24 S.G.CAPS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
@@ -119,9 +131,6 @@
     <t>105.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -227,6 +236,15 @@
     <t>70.9500</t>
   </si>
   <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>DAKTACORT CREAM 15 GM</t>
   </si>
   <si>
@@ -254,9 +272,6 @@
     <t>23.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>DICLAC 75 ID 30 TAB</t>
   </si>
   <si>
@@ -467,7 +482,10 @@
     <t>37.00</t>
   </si>
   <si>
-    <t>37.0000</t>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
   </si>
   <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
@@ -500,6 +518,15 @@
     <t>145.0000</t>
   </si>
   <si>
+    <t>MAVILOR 2.5 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -554,9 +581,6 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>46.00</t>
-  </si>
-  <si>
     <t>46.0000</t>
   </si>
   <si>
@@ -584,13 +608,10 @@
     <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>76.00</t>
   </si>
   <si>
-    <t>38.0000</t>
+    <t>76.0000</t>
   </si>
   <si>
     <t>PANADOL EXTRA 48 TAB</t>
@@ -686,6 +707,15 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>TAVANIC 500MG 5 TAB</t>
   </si>
   <si>
@@ -728,9 +758,6 @@
     <t>TRI-BETAPRONATE CREAM 30 GM</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>UNIFUNGI 150MG 2 CAPS.</t>
   </si>
   <si>
@@ -902,7 +929,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 8:32 PM</t>
+    <t>Wednesday, 8 October, 2025 8:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1659,7 +1686,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1692,7 +1719,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1708,7 +1735,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1718,14 +1745,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1741,7 +1768,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1758,7 +1785,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1774,7 +1801,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1807,7 +1834,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1817,11 +1844,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1833,14 +1860,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1857,7 +1884,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1873,7 +1900,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1883,14 +1910,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1899,31 +1926,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1932,31 +1959,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1965,14 +1992,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1989,7 +2016,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2005,7 +2032,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2015,11 +2042,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2031,14 +2058,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2055,7 +2082,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2071,7 +2098,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2088,7 +2115,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2104,7 +2131,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2114,14 +2141,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2130,14 +2157,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2147,14 +2174,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2163,20 +2190,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2187,7 +2214,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2203,7 +2230,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2213,11 +2240,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2229,31 +2256,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2262,14 +2289,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2279,11 +2306,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2295,7 +2322,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2312,14 +2339,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2328,14 +2355,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2345,14 +2372,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2361,7 +2388,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2374,18 +2401,18 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2394,14 +2421,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2411,14 +2438,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2427,28 +2454,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2460,14 +2487,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2477,14 +2504,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2493,14 +2520,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2510,14 +2537,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2526,14 +2553,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2543,14 +2570,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2559,14 +2586,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2576,14 +2603,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2592,14 +2619,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2609,14 +2636,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2625,14 +2652,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2642,11 +2669,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2658,14 +2685,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2675,11 +2702,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2691,14 +2718,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2708,11 +2735,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2724,14 +2751,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2741,11 +2768,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2757,14 +2784,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2774,14 +2801,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2797,7 +2824,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2814,7 +2841,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2830,7 +2857,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2840,14 +2867,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2856,14 +2883,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2873,14 +2900,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2889,31 +2916,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2922,14 +2949,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2939,14 +2966,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2955,31 +2982,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2995,7 +3022,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3005,14 +3032,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3021,14 +3048,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3038,14 +3065,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3054,14 +3081,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3071,14 +3098,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3087,14 +3114,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3108,10 +3135,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3120,14 +3147,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3137,14 +3164,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3153,14 +3180,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3170,14 +3197,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>170</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3186,14 +3213,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3203,14 +3230,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3219,31 +3246,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3252,14 +3279,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3269,14 +3296,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3285,14 +3312,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3302,14 +3329,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3318,14 +3345,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3335,14 +3362,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3351,31 +3378,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3384,14 +3411,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3401,14 +3428,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>51</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3417,14 +3444,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3434,14 +3461,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3450,31 +3477,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>195</v>
+        <v>62</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3483,14 +3510,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3500,14 +3527,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3516,14 +3543,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3533,14 +3560,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3549,14 +3576,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3566,14 +3593,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3582,31 +3609,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>118</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3615,31 +3642,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3648,14 +3675,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3665,14 +3692,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3681,14 +3708,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>216</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3698,14 +3725,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3714,31 +3741,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3747,28 +3774,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3780,14 +3807,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3797,14 +3824,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3813,14 +3840,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>59</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3830,11 +3857,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3846,31 +3873,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3879,14 +3906,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>216</v>
+        <v>62</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3896,11 +3923,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3912,14 +3939,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3929,14 +3956,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3945,14 +3972,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3962,11 +3989,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>26</v>
@@ -3978,14 +4005,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3995,11 +4022,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4011,14 +4038,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4028,14 +4055,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4044,14 +4071,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>59</v>
+        <v>223</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4061,11 +4088,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4077,14 +4104,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4094,14 +4121,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4110,31 +4137,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>101</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4150,7 +4177,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4160,14 +4187,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>83</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4176,14 +4203,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4193,11 +4220,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4209,14 +4236,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>254</v>
+        <v>62</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4226,14 +4253,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>257</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4242,14 +4269,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4259,14 +4286,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4275,28 +4302,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>261</v>
+        <v>62</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>105</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>263</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4308,31 +4335,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>44</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>186</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4341,31 +4368,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>35</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4374,31 +4401,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>266</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4407,31 +4434,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>272</v>
+        <v>26</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>14</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>15</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4440,31 +4467,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>186</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4473,31 +4500,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>277</v>
+        <v>194</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>46</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>216</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4506,31 +4533,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>279</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>281</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4539,31 +4566,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>107</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4572,28 +4599,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>59</v>
+        <v>281</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4605,31 +4632,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>194</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4638,31 +4665,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>18</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>223</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4684,18 +4711,18 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>186</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>187</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4704,31 +4731,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>120</v>
+        <v>264</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4737,28 +4764,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>268</v>
+        <v>62</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4770,28 +4797,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>180</v>
+        <v>294</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4803,28 +4830,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4836,28 +4863,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>30</v>
+        <v>297</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4869,66 +4896,231 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>296</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>6132.4399999999996</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>297</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>298</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
         <v>299</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>277</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>58</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>300</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>274</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>301</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>189</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>58</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>14</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>302</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>62</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>58</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>14</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>303</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>34</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>58</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>194</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>304</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>305</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>58</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>59</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>6331.7799999999997</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>306</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>307</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>308</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5447,10 +5639,35 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -98,12 +98,33 @@
     <t>37.0000</t>
   </si>
   <si>
+    <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>-33.6600</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>AMARYL 2 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>52.00</t>
   </si>
   <si>
@@ -182,6 +203,15 @@
     <t>40.8000</t>
   </si>
   <si>
+    <t>CARFALONE 25MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>98.50</t>
+  </si>
+  <si>
+    <t>49.2500</t>
+  </si>
+  <si>
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
@@ -245,6 +275,12 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>CORDARONE 200MG 30 SCORED TABLETS</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>DAKTACORT CREAM 15 GM</t>
   </si>
   <si>
@@ -323,6 +359,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>EMPACOZA TRIO XR 10/5/1000MG 30 TAB</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
     <t>ENERZAD EXTRA</t>
   </si>
   <si>
@@ -392,6 +437,18 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>-90.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -563,9 +620,6 @@
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>39.0000</t>
   </si>
   <si>
@@ -626,9 +680,6 @@
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t>51.0000</t>
   </si>
   <si>
@@ -716,6 +767,18 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>-45.0450</t>
+  </si>
+  <si>
     <t>TAVANIC 500MG 5 TAB</t>
   </si>
   <si>
@@ -929,7 +992,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 8:43 PM</t>
+    <t>Wednesday, 8 October, 2025 8:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1719,7 +1782,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1728,14 +1791,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1752,7 +1815,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1768,7 +1831,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1785,7 +1848,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1801,7 +1864,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1811,14 +1874,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1827,14 +1890,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1844,14 +1907,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1860,14 +1923,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1900,7 +1963,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1917,7 +1980,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1950,7 +2013,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1966,24 +2029,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1992,14 +2055,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2009,11 +2072,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>26</v>
@@ -2025,14 +2088,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2042,14 +2105,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2058,28 +2121,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2091,14 +2154,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2131,7 +2194,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2148,7 +2211,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2164,7 +2227,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2174,14 +2237,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2190,14 +2253,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2230,7 +2293,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2244,10 +2307,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2256,24 +2319,24 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -2296,7 +2359,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2306,14 +2369,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2322,14 +2385,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2362,7 +2425,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2372,11 +2435,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2388,28 +2451,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>26</v>
@@ -2421,14 +2484,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2438,14 +2501,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2454,31 +2517,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2487,14 +2550,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2504,11 +2567,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2527,7 +2590,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2544,7 +2607,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2560,7 +2623,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2570,7 +2633,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2593,24 +2656,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>119</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2619,31 +2682,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2652,14 +2715,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2669,11 +2732,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2685,14 +2748,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2702,11 +2765,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2718,14 +2781,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2735,14 +2798,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2751,14 +2814,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2768,14 +2831,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2784,14 +2847,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2801,14 +2864,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2817,14 +2880,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2857,7 +2920,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2867,14 +2930,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2883,14 +2946,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2900,14 +2963,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2916,14 +2979,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2933,14 +2996,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2949,14 +3012,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2966,11 +3029,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2982,31 +3045,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3015,14 +3078,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3032,14 +3095,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3048,14 +3111,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3069,10 +3132,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3081,7 +3144,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3098,14 +3161,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3114,14 +3177,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3131,11 +3194,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>26</v>
@@ -3147,14 +3210,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3164,14 +3227,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3180,28 +3243,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>26</v>
@@ -3213,14 +3276,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3230,14 +3293,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3246,14 +3309,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3263,14 +3326,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3279,14 +3342,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3296,11 +3359,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3312,14 +3375,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3329,14 +3392,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>179</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3345,14 +3408,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3362,14 +3425,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3378,28 +3441,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>26</v>
@@ -3411,14 +3474,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3428,14 +3491,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3451,7 +3514,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3461,14 +3524,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3484,7 +3547,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3494,14 +3557,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3510,14 +3573,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3527,14 +3590,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3543,14 +3606,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3560,14 +3623,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3576,31 +3639,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>35</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3609,31 +3672,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>24</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3642,14 +3705,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3659,14 +3722,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>86</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3675,14 +3738,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3692,14 +3755,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3708,14 +3771,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3725,14 +3788,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3741,14 +3804,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3758,14 +3821,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3781,13 +3844,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3814,24 +3877,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>133</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3847,7 +3910,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3857,14 +3920,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3880,13 +3943,13 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3913,7 +3976,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3923,14 +3986,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3939,14 +4002,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3956,14 +4019,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3972,31 +4035,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4005,14 +4068,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4022,14 +4085,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4038,14 +4101,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4055,14 +4118,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>14</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4071,28 +4134,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>223</v>
+        <v>72</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4104,14 +4167,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4121,14 +4184,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4144,7 +4207,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4154,14 +4217,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4170,14 +4233,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4187,14 +4250,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>83</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>158</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4203,14 +4266,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>91</v>
+        <v>253</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4220,14 +4283,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4236,14 +4299,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4253,11 +4316,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4269,14 +4332,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4286,14 +4349,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>218</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4302,28 +4365,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>62</v>
+        <v>240</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>105</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>106</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4335,14 +4398,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>72</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4352,14 +4415,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4368,14 +4431,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4385,14 +4448,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>236</v>
+        <v>86</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4401,14 +4464,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4418,14 +4481,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>95</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>266</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4434,14 +4497,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4451,14 +4514,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4467,28 +4530,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>270</v>
+        <v>72</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4500,31 +4563,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4533,31 +4596,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>120</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4566,31 +4629,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4599,28 +4662,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>281</v>
+        <v>72</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>14</v>
+        <v>257</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4632,31 +4695,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>194</v>
+        <v>285</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>62</v>
+        <v>287</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4665,31 +4728,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>49</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>223</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4698,31 +4761,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4731,31 +4794,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>264</v>
+        <v>212</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>112</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4764,31 +4827,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4797,28 +4860,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4830,28 +4893,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>54</v>
+        <v>302</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4863,31 +4926,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4896,31 +4959,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>125</v>
+        <v>307</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>240</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4929,31 +4992,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4962,31 +5025,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>14</v>
+        <v>285</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4995,28 +5058,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>15</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5028,28 +5091,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>34</v>
+        <v>315</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>194</v>
+        <v>307</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5061,66 +5124,297 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>305</v>
+        <v>61</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>6331.7799999999997</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
-        <v>306</v>
-      </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
-        <v>307</v>
-      </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
-        <v>308</v>
-      </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>317</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>318</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>68</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>212</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>319</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>16</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>68</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>140</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>320</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>298</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>68</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>321</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>295</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>322</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>207</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>68</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>14</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>323</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>72</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>68</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>14</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>324</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>41</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>68</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>212</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>325</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>326</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>68</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>69</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>6402.4049999999997</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>327</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>328</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>329</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5664,10 +5958,45 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -224,6 +224,18 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
     <t>CIPRAPRO 10MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -344,9 +356,6 @@
     <t>DIXVIT 10.000 I.U. 30 TABS.</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
     <t>39.6000</t>
   </si>
   <si>
@@ -671,9 +680,6 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>54.0000</t>
   </si>
   <si>
@@ -950,6 +956,9 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>15:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -965,9 +974,6 @@
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
-    <t>15:0</t>
-  </si>
-  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -992,7 +998,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 8:49 PM</t>
+    <t>Wednesday, 8 October, 2025 8:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2194,7 +2200,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2204,14 +2210,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2220,14 +2226,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2260,7 +2266,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2270,14 +2276,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2286,14 +2292,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2303,11 +2309,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>26</v>
@@ -2319,14 +2325,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2336,11 +2342,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>26</v>
@@ -2352,14 +2358,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2369,14 +2375,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2385,14 +2391,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2409,7 +2415,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2425,7 +2431,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2435,14 +2441,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2451,31 +2457,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2484,20 +2490,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2508,7 +2514,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2524,7 +2530,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2534,14 +2540,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2550,14 +2556,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2567,14 +2573,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2583,14 +2589,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2600,14 +2606,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2616,14 +2622,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2633,7 +2639,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2656,17 +2662,17 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2689,7 +2695,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2706,7 +2712,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2722,13 +2728,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2755,7 +2761,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2788,7 +2794,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2805,7 +2811,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2821,7 +2827,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2831,14 +2837,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>134</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2847,14 +2853,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2864,14 +2870,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>137</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2897,14 +2903,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2913,14 +2919,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2930,14 +2936,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2946,14 +2952,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2970,7 +2976,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2986,7 +2992,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3019,7 +3025,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3052,7 +3058,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3085,7 +3091,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3128,14 +3134,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3144,14 +3150,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3161,14 +3167,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3184,7 +3190,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3201,7 +3207,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3217,7 +3223,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3227,14 +3233,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3243,31 +3249,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3276,28 +3282,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>26</v>
@@ -3309,14 +3315,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3326,14 +3332,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3342,14 +3348,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3359,11 +3365,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3375,14 +3381,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>61</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3392,14 +3398,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3415,7 +3421,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3425,14 +3431,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3448,7 +3454,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3458,14 +3464,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3474,7 +3480,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3491,14 +3497,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3531,7 +3537,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3547,7 +3553,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3564,7 +3570,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3580,7 +3586,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3590,14 +3596,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>198</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3606,14 +3612,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3623,14 +3629,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q67" s="12">
         <v>201</v>
-      </c>
-      <c t="s" r="Q67" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3646,21 +3652,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>26</v>
@@ -3672,28 +3678,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>26</v>
@@ -3705,14 +3711,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3722,14 +3728,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3745,7 +3751,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3755,14 +3761,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3771,14 +3777,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3788,14 +3794,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3811,7 +3817,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3825,10 +3831,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3837,14 +3843,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3854,14 +3860,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3877,24 +3883,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3910,24 +3916,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3943,7 +3949,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3953,14 +3959,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>31</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3969,14 +3975,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3986,14 +3992,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4002,14 +4008,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4019,11 +4025,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>26</v>
@@ -4035,31 +4041,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4068,31 +4074,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4101,14 +4107,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4118,14 +4124,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4141,21 +4147,21 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>72</v>
+        <v>242</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4167,24 +4173,24 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4207,7 +4213,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4217,11 +4223,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4233,14 +4239,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4250,14 +4256,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4266,14 +4272,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>253</v>
+        <v>24</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4283,14 +4289,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4299,14 +4305,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>72</v>
+        <v>255</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4316,14 +4322,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4332,14 +4338,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4349,14 +4355,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>52</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4372,7 +4378,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>240</v>
+        <v>26</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4386,10 +4392,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>263</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4398,14 +4404,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>72</v>
+        <v>242</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4415,14 +4421,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4431,14 +4437,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4448,14 +4454,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>86</v>
+        <v>267</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>268</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4471,7 +4477,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4481,14 +4487,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>177</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4497,14 +4503,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4514,11 +4520,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>271</v>
+        <v>99</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>272</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4530,14 +4536,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4547,11 +4553,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4563,14 +4569,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4580,11 +4586,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>234</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4596,28 +4602,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>120</v>
+        <v>236</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>121</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4629,31 +4635,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>280</v>
+        <v>123</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>281</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4662,14 +4668,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>72</v>
+        <v>281</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4679,14 +4685,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4695,14 +4701,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>284</v>
+        <v>76</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4712,14 +4718,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>287</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4728,14 +4734,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>26</v>
+        <v>286</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4745,14 +4751,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>26</v>
+        <v>289</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4768,24 +4774,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>291</v>
+        <v>26</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4794,14 +4800,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>54</v>
+        <v>293</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4811,14 +4817,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>212</v>
+        <v>294</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>295</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4834,7 +4840,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4844,14 +4850,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>215</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>46</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4860,14 +4866,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>298</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4877,14 +4883,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>300</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4893,14 +4899,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4910,11 +4916,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>14</v>
+        <v>301</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4943,14 +4949,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>212</v>
+        <v>14</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>305</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4959,14 +4965,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>72</v>
+        <v>306</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4976,14 +4982,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>307</v>
+        <v>215</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>56</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>240</v>
+        <v>76</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4999,7 +5005,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5009,14 +5015,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>311</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>24</v>
+        <v>242</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5025,14 +5031,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>72</v>
+        <v>311</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5042,14 +5048,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>127</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5058,14 +5064,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5075,14 +5081,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>305</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>315</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5091,14 +5097,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5108,11 +5114,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5124,14 +5130,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>61</v>
+        <v>318</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5141,11 +5147,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>18</v>
+        <v>309</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>19</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5157,14 +5163,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>318</v>
+        <v>61</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5174,11 +5180,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>213</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5190,14 +5196,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>315</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5207,11 +5213,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5223,14 +5229,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>298</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5240,11 +5246,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>321</v>
+        <v>143</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>295</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5263,7 +5269,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>207</v>
+        <v>300</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5273,11 +5279,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>14</v>
+        <v>323</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>15</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5289,14 +5295,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5322,14 +5328,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5339,11 +5345,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>212</v>
+        <v>14</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5355,14 +5361,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>326</v>
+        <v>41</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5372,49 +5378,82 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>327</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>328</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>68</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>69</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
         <v>70</v>
       </c>
-      <c t="s" r="Q120" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>6402.4049999999997</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>327</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
-        <v>328</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>6423.6049999999996</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
         <v>329</v>
       </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>330</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>331</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5993,10 +6032,15 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -998,7 +998,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 8:52 PM</t>
+    <t>Wednesday, 8 October, 2025 9:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -170,6 +170,18 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>BABY RELIEF 12.5MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -239,9 +251,6 @@
     <t>CIPRAPRO 10MG 30 F.C. TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>237.00</t>
   </si>
   <si>
@@ -293,6 +302,15 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>CORTIPLEX B6 PEDIATRIC 3 AMP.</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>8.9100</t>
+  </si>
+  <si>
     <t>DAKTACORT CREAM 15 GM</t>
   </si>
   <si>
@@ -308,9 +326,6 @@
     <t>6:3</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>11.8800</t>
   </si>
   <si>
@@ -332,204 +347,198 @@
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>DIGEST EZE 20 CAPS</t>
+  </si>
+  <si>
+    <t>94.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>DIXVIT 10.000 I.U. 30 TABS.</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>EMPACOZA TRIO XR 10/5/1000MG 30 TAB</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
+    <t>ENERZAD EXTRA</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>E-YEAST 20 CAPS</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>62.5000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>5:9</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>-90.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>GLYCERIN (EL-NILE) INFANTILE 6 SUPP.</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>GOLDEN LAX SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>259.00</t>
+  </si>
+  <si>
+    <t>259.0000</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>IROSPECT 20 PIECES</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>DIGEST EZE 20 CAPS</t>
-  </si>
-  <si>
-    <t>94.00</t>
-  </si>
-  <si>
-    <t>47.0000</t>
-  </si>
-  <si>
-    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
-  </si>
-  <si>
-    <t>DIXVIT 10.000 I.U. 30 TABS.</t>
-  </si>
-  <si>
-    <t>39.6000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>8:2</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>EMPACOZA TRIO XR 10/5/1000MG 30 TAB</t>
-  </si>
-  <si>
-    <t>396.00</t>
-  </si>
-  <si>
-    <t>130.6800</t>
-  </si>
-  <si>
-    <t>ENERZAD EXTRA</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>104.0000</t>
-  </si>
-  <si>
-    <t>EXTRAUMA DNA CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>E-YEAST 20 CAPS</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>62.5000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>5:9</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:3</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FAYCID HAIR OIL 60 ML</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>-90.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>GLYCERIN (EL-NILE) INFANTILE 6 SUPP.</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>GOLDEN LAX SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>259.00</t>
-  </si>
-  <si>
-    <t>259.0000</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>IROSPECT 20 PIECES</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
     <t>JOMOGESTIVE TAB</t>
   </si>
   <si>
@@ -593,6 +602,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>MAXDINIR 250MG/5ML 60 ML SUSP</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -665,9 +683,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>92.00</t>
-  </si>
-  <si>
     <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
   </si>
   <si>
@@ -851,6 +866,15 @@
     <t>VENTAMOR FACIAL WASH</t>
   </si>
   <si>
+    <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -869,16 +893,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8173:0</t>
+    <t>8171:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>7:0</t>
+    <t>9:0</t>
   </si>
   <si>
     <t>ZYRTEC 10MG 20 TAB</t>
@@ -893,12 +914,6 @@
     <t>37:0</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>ايزي سويت 3 قطع</t>
   </si>
   <si>
@@ -956,24 +971,30 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>46:0</t>
+  </si>
+  <si>
+    <t>شامبو كلير للرجال 180مل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
     <t>15:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>سرنجات دواء 5 سم</t>
-  </si>
-  <si>
-    <t>46:0</t>
-  </si>
-  <si>
-    <t>شامبو كلير للرجال 180مل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات فينوس حريمي </t>
-  </si>
-  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -998,7 +1019,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 9:12 PM</t>
+    <t>Wednesday, 8 October, 2025 9:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2002,7 +2023,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2012,14 +2033,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>56</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2035,7 +2056,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2045,14 +2066,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2061,14 +2082,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2101,7 +2122,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2111,11 +2132,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>26</v>
@@ -2127,20 +2148,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2151,7 +2172,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2167,13 +2188,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2184,7 +2205,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2233,7 +2254,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2250,7 +2271,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2266,7 +2287,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2276,11 +2297,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2292,14 +2313,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2316,7 +2337,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2332,7 +2353,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2365,7 +2386,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2375,11 +2396,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>26</v>
@@ -2391,14 +2412,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2408,14 +2429,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2431,7 +2452,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2441,11 +2462,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>26</v>
@@ -2457,14 +2478,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2474,14 +2495,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2497,17 +2518,17 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2530,7 +2551,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2540,11 +2561,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2556,28 +2577,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>26</v>
@@ -2589,14 +2610,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2606,14 +2627,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2622,14 +2643,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2639,7 +2660,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2662,7 +2683,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2672,14 +2693,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2688,28 +2709,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>26</v>
@@ -2721,31 +2742,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2754,31 +2775,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2787,28 +2808,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2820,14 +2841,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2837,14 +2858,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2853,14 +2874,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2870,14 +2891,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2886,14 +2907,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2903,11 +2924,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>26</v>
@@ -2919,14 +2940,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2936,14 +2957,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2952,14 +2973,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2969,14 +2990,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2985,14 +3006,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3002,11 +3023,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3018,14 +3039,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3035,14 +3056,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3051,14 +3072,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3068,11 +3089,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3084,14 +3105,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3101,11 +3122,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3117,14 +3138,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3134,11 +3155,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3150,14 +3171,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3167,14 +3188,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3183,14 +3204,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3200,14 +3221,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3216,14 +3237,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3233,11 +3254,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>26</v>
@@ -3249,14 +3270,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3266,14 +3287,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3282,28 +3303,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>26</v>
@@ -3315,14 +3336,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3332,14 +3353,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3348,31 +3369,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3381,14 +3402,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3398,14 +3419,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3414,14 +3435,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3431,14 +3452,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3447,14 +3468,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3464,14 +3485,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3480,14 +3501,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3497,11 +3518,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>26</v>
@@ -3513,14 +3534,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3530,14 +3551,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3546,7 +3567,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3563,11 +3584,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>26</v>
@@ -3579,14 +3600,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3596,11 +3617,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3612,14 +3633,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3629,14 +3650,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>201</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3645,14 +3666,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3662,14 +3683,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3678,31 +3699,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3711,14 +3732,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3728,14 +3749,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>58</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3744,14 +3765,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>41</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3761,14 +3782,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3777,28 +3798,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>26</v>
@@ -3810,14 +3831,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3827,14 +3848,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>62</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3843,14 +3864,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3860,14 +3881,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>93</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3876,14 +3897,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3893,14 +3914,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3909,31 +3930,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>136</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3942,14 +3963,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3959,14 +3980,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>31</v>
+        <v>198</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3975,14 +3996,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3992,11 +4013,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4008,31 +4029,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>139</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4041,14 +4062,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4058,11 +4079,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>31</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>26</v>
@@ -4074,28 +4095,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4107,14 +4128,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4124,11 +4145,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>26</v>
@@ -4140,14 +4161,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>242</v>
+        <v>30</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4157,14 +4178,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>15</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4173,28 +4194,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4206,14 +4227,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4223,14 +4244,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4239,14 +4260,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4256,11 +4277,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4272,31 +4293,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4305,14 +4326,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>255</v>
+        <v>56</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4322,14 +4343,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4338,14 +4359,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4355,11 +4376,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4371,14 +4392,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4388,11 +4409,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>52</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>26</v>
@@ -4404,14 +4425,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4421,14 +4442,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4437,14 +4458,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4454,14 +4475,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4470,14 +4491,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4487,14 +4508,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>90</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4503,14 +4524,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4520,11 +4541,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>99</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4536,14 +4557,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4553,14 +4574,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4569,14 +4590,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4586,14 +4607,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>93</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4602,14 +4623,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4619,11 +4640,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>236</v>
+        <v>54</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4635,28 +4656,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>123</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>124</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4675,7 +4696,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>281</v>
+        <v>56</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4685,14 +4706,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4701,14 +4722,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4718,11 +4739,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4734,31 +4755,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>286</v>
+        <v>56</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>287</v>
+        <v>126</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>289</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4767,14 +4788,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>26</v>
+        <v>216</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4784,14 +4805,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4800,31 +4821,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4833,31 +4854,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>215</v>
+        <v>264</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4866,31 +4887,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>294</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>61</v>
+        <v>296</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4899,31 +4920,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>300</v>
+        <v>26</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4932,28 +4953,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>15</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4965,31 +4986,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>306</v>
+        <v>58</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>76</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4998,31 +5019,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>242</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5031,31 +5052,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5064,31 +5085,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>76</v>
+        <v>309</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>287</v>
+        <v>14</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>315</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5097,31 +5118,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>76</v>
+        <v>311</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>221</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5130,31 +5151,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>318</v>
+        <v>56</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>307</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>247</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5163,31 +5184,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>61</v>
+        <v>316</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>18</v>
+        <v>317</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>19</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5196,31 +5217,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>315</v>
+        <v>56</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>215</v>
+        <v>295</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>216</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>309</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5236,24 +5257,24 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>143</v>
+        <v>314</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>144</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5262,28 +5283,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5295,28 +5316,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5328,28 +5349,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>76</v>
+        <v>327</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>15</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5361,28 +5382,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>215</v>
+        <v>146</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>216</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5394,66 +5415,198 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>69</v>
+        <v>330</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>70</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>6423.6049999999996</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>329</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
-        <v>330</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
         <v>331</v>
       </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>216</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>72</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>14</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>332</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>56</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>72</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>14</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>333</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>41</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>72</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>221</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>334</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>335</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>72</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>73</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>6623.5150000000003</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
+        <v>336</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
+        <v>337</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>338</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6037,10 +6190,30 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -215,6 +215,18 @@
     <t>40.8000</t>
   </si>
   <si>
+    <t>BUDEXAN 0.5 MG/2ML 20 SUSP. AMP. FOR INH</t>
+  </si>
+  <si>
+    <t>0:14</t>
+  </si>
+  <si>
+    <t>398.00</t>
+  </si>
+  <si>
+    <t>19.9000</t>
+  </si>
+  <si>
     <t>CARFALONE 25MG 20 F.C. TABS</t>
   </si>
   <si>
@@ -800,6 +812,18 @@
     <t>-45.0450</t>
   </si>
   <si>
+    <t>SWABIVENT NEBULIZER SOLN. 20 AMP. 2.5ML</t>
+  </si>
+  <si>
+    <t>1:8</t>
+  </si>
+  <si>
+    <t>176.00</t>
+  </si>
+  <si>
+    <t>8.8000</t>
+  </si>
+  <si>
     <t>TAVANIC 500MG 5 TAB</t>
   </si>
   <si>
@@ -977,7 +1001,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>سرنجات دواء 5 سم</t>
@@ -1019,7 +1043,16 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 9:16 PM</t>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 8 October, 2025 9:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2155,7 +2188,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2165,11 +2198,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>26</v>
@@ -2181,20 +2214,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2205,7 +2238,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2221,13 +2254,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2238,7 +2271,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2254,7 +2287,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2264,11 +2297,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>26</v>
@@ -2280,7 +2313,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2297,14 +2330,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2313,14 +2346,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2353,7 +2386,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2363,14 +2396,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2379,14 +2412,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2396,11 +2429,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>26</v>
@@ -2412,14 +2445,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2429,11 +2462,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>26</v>
@@ -2445,7 +2478,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2462,11 +2495,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>26</v>
@@ -2478,14 +2511,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2495,14 +2528,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2511,14 +2544,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2528,14 +2561,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2544,14 +2577,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2561,14 +2594,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2577,31 +2610,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2610,31 +2643,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2643,14 +2676,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2660,14 +2693,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2676,14 +2709,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2693,14 +2726,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2709,14 +2742,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2726,14 +2759,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2742,14 +2775,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2759,11 +2792,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>26</v>
@@ -2775,28 +2808,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>26</v>
@@ -2808,31 +2841,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2841,28 +2874,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2874,14 +2907,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2891,11 +2924,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2907,14 +2940,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2924,14 +2957,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2940,14 +2973,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2961,10 +2994,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>140</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2990,14 +3023,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3006,14 +3039,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3023,14 +3056,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3063,7 +3096,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3079,7 +3112,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3089,14 +3122,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3105,14 +3138,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3122,11 +3155,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3138,14 +3171,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3155,11 +3188,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3171,7 +3204,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3188,11 +3221,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3204,14 +3237,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3221,11 +3254,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3237,7 +3270,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3254,14 +3287,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3270,14 +3303,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3287,14 +3320,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3303,14 +3336,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3320,14 +3353,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3336,14 +3369,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3353,14 +3386,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3369,31 +3402,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3402,7 +3435,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3415,15 +3448,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>26</v>
@@ -3435,7 +3468,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3452,14 +3485,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3468,14 +3501,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3485,11 +3518,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>54</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3501,14 +3534,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3518,14 +3551,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>54</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3534,14 +3567,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>56</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3551,14 +3584,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3567,14 +3600,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3584,14 +3617,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3600,7 +3633,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3617,14 +3650,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3633,7 +3666,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3650,14 +3683,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3666,14 +3699,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3683,14 +3716,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3699,14 +3732,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>175</v>
+        <v>56</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3716,11 +3749,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3732,14 +3765,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3756,7 +3789,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>207</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3765,14 +3798,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3789,7 +3822,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>26</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3798,28 +3831,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>26</v>
@@ -3831,28 +3864,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>26</v>
@@ -3864,14 +3897,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>24</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3881,14 +3914,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3897,14 +3930,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>56</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3914,14 +3947,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>209</v>
+        <v>97</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3930,14 +3963,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3947,14 +3980,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3963,14 +3996,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3980,14 +4013,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3996,14 +4029,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4013,14 +4046,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4029,31 +4062,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4062,31 +4095,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4095,14 +4128,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4112,14 +4145,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4128,14 +4161,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4145,14 +4178,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4161,14 +4194,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4178,11 +4211,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>26</v>
@@ -4194,31 +4227,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4227,31 +4260,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4260,14 +4293,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4277,14 +4310,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4293,28 +4326,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4326,7 +4359,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4339,15 +4372,15 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>209</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4359,7 +4392,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4376,11 +4409,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4392,14 +4425,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4409,14 +4442,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4425,14 +4458,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>24</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4449,7 +4482,7 @@
         <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4465,7 +4498,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>56</v>
+        <v>264</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4475,14 +4508,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4491,14 +4524,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>26</v>
+        <v>268</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4508,11 +4541,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>52</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>26</v>
@@ -4524,14 +4557,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>247</v>
+        <v>56</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4541,11 +4574,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4557,14 +4590,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4574,14 +4607,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4590,14 +4623,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4607,14 +4640,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>93</v>
+        <v>277</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4623,14 +4656,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4640,14 +4673,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>54</v>
+        <v>280</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>183</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4656,14 +4689,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4673,14 +4706,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>97</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4689,14 +4722,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4706,11 +4739,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>54</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4722,14 +4755,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4739,11 +4772,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>241</v>
+        <v>286</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4755,7 +4788,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4768,15 +4801,15 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>126</v>
+        <v>289</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>127</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4788,14 +4821,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>216</v>
+        <v>56</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4805,11 +4838,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4821,31 +4854,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>289</v>
+        <v>56</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4854,14 +4887,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>56</v>
+        <v>220</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4871,11 +4904,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4887,14 +4920,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4904,14 +4937,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>60</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>296</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4920,14 +4953,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4937,14 +4970,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4953,31 +4986,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>304</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4986,31 +5019,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>221</v>
+        <v>306</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5019,31 +5052,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>308</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>46</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5052,31 +5085,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>305</v>
+        <v>58</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>225</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5085,31 +5118,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>309</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>294</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5118,31 +5151,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>221</v>
+        <v>314</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5151,31 +5184,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>56</v>
+        <v>317</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>314</v>
+        <v>14</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>247</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5184,31 +5217,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>317</v>
+        <v>225</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5217,7 +5250,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5230,18 +5263,18 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>320</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>309</v>
+        <v>251</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5250,31 +5283,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>56</v>
+        <v>324</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5283,31 +5316,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>324</v>
+        <v>56</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>317</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5316,31 +5349,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>18</v>
+        <v>322</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>19</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5349,28 +5382,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>221</v>
+        <v>322</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>222</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5382,28 +5415,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5415,28 +5448,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>330</v>
+        <v>225</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>302</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5448,28 +5481,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5481,28 +5514,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>56</v>
+        <v>313</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>14</v>
+        <v>338</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>15</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5514,28 +5547,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>222</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5547,66 +5580,165 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>335</v>
+        <v>56</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>6623.5150000000003</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
-        <v>336</v>
-      </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
-        <v>337</v>
-      </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
-        <v>338</v>
-      </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>341</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>41</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>76</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>225</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>342</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>343</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>76</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>77</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>344</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>345</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>76</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>42</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>346</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>6679.2150000000001</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
+        <v>347</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>348</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>349</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6210,10 +6342,25 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -725,6 +725,15 @@
     <t>29.5000</t>
   </si>
   <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>0:12</t>
+  </si>
+  <si>
+    <t>4.8000</t>
+  </si>
+  <si>
     <t>PROTOFIX 40MG 14 F.C. TAB</t>
   </si>
   <si>
@@ -734,6 +743,15 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>564.00</t>
+  </si>
+  <si>
+    <t>28.2000</t>
+  </si>
+  <si>
     <t>REGIMAX 120MG 30 CAPS</t>
   </si>
   <si>
@@ -815,13 +833,13 @@
     <t>SWABIVENT NEBULIZER SOLN. 20 AMP. 2.5ML</t>
   </si>
   <si>
-    <t>1:8</t>
+    <t>1:7</t>
   </si>
   <si>
     <t>176.00</t>
   </si>
   <si>
-    <t>8.8000</t>
+    <t>17.6000</t>
   </si>
   <si>
     <t>TAVANIC 500MG 5 TAB</t>
@@ -1001,9 +1019,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>9.0000</t>
-  </si>
-  <si>
     <t>سرنجات دواء 5 سم</t>
   </si>
   <si>
@@ -1028,6 +1043,9 @@
     <t>40.00</t>
   </si>
   <si>
+    <t>فرش اسنان HASI</t>
+  </si>
+  <si>
     <t>قصافات كبار لوكس</t>
   </si>
   <si>
@@ -1052,7 +1070,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 9:18 PM</t>
+    <t>Wednesday, 8 October, 2025 9:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4201,7 +4219,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4211,7 +4229,7 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -4234,7 +4252,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4267,13 +4285,13 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4284,7 +4302,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4300,7 +4318,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4333,21 +4351,21 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>251</v>
+        <v>56</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4359,31 +4377,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4392,14 +4410,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>56</v>
+        <v>257</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4409,11 +4427,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4425,7 +4443,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4438,15 +4456,15 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4458,14 +4476,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4475,14 +4493,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4498,7 +4516,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>264</v>
+        <v>56</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4508,14 +4526,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4524,14 +4542,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>268</v>
+        <v>24</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4541,11 +4559,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>26</v>
@@ -4557,14 +4575,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>56</v>
+        <v>270</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4574,14 +4592,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4590,14 +4608,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>274</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4611,10 +4629,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>52</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4623,14 +4641,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>251</v>
+        <v>56</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4640,11 +4658,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4656,14 +4674,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4673,14 +4691,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>281</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4696,7 +4714,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4706,14 +4724,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>97</v>
+        <v>283</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4722,14 +4740,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4739,14 +4757,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>187</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4755,14 +4773,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4772,14 +4790,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>286</v>
+        <v>97</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4788,14 +4806,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4805,11 +4823,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>289</v>
+        <v>54</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>290</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4828,7 +4846,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4838,11 +4856,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>245</v>
+        <v>292</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>246</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4854,7 +4872,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4867,15 +4885,15 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>130</v>
+        <v>295</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>131</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4887,14 +4905,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>220</v>
+        <v>56</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4904,11 +4922,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4920,31 +4938,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>297</v>
+        <v>56</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>298</v>
+        <v>130</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>299</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4953,14 +4971,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>56</v>
+        <v>220</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4970,11 +4988,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4986,14 +5004,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5003,14 +5021,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>60</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>304</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5019,14 +5037,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5036,14 +5054,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5065,18 +5083,18 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>295</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>310</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5085,31 +5103,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>225</v>
+        <v>312</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5118,14 +5136,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>314</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5135,14 +5153,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>46</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5151,14 +5169,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>313</v>
+        <v>58</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5168,14 +5186,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>314</v>
+        <v>225</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5184,14 +5202,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>317</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5201,14 +5219,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>14</v>
+        <v>300</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5234,14 +5252,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>225</v>
+        <v>320</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5250,14 +5268,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>56</v>
+        <v>323</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5267,14 +5285,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>322</v>
+        <v>14</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>251</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5283,14 +5301,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5300,14 +5318,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
         <v>326</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5333,14 +5351,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>328</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>317</v>
+        <v>257</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5356,7 +5374,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>56</v>
+        <v>330</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5366,14 +5384,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5382,14 +5400,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5399,14 +5417,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>323</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5415,14 +5433,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5432,14 +5450,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>18</v>
+        <v>328</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>179</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5448,14 +5466,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5465,11 +5483,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>225</v>
+        <v>328</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>226</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5481,14 +5499,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5498,11 +5516,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5514,14 +5532,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5531,11 +5549,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>338</v>
+        <v>225</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>310</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5547,14 +5565,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5564,11 +5582,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5580,14 +5598,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>56</v>
+        <v>319</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5597,11 +5615,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5613,7 +5631,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5630,11 +5648,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>226</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5646,14 +5664,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>343</v>
+        <v>220</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5663,11 +5681,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5679,14 +5697,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>345</v>
+        <v>56</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5696,49 +5714,148 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>346</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>6679.2150000000001</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
         <v>347</v>
       </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>41</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>76</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>225</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
         <v>348</v>
       </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
         <v>349</v>
       </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>76</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>77</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>350</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>351</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>76</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>42</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>352</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="P132" s="13">
+        <v>6774.0150000000003</v>
+      </c>
+      <c r="Q132" s="13"/>
+    </row>
+    <row r="133" ht="16.5" customHeight="1">
+      <c t="s" r="A133" s="14">
+        <v>353</v>
+      </c>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c t="s" r="G133" s="15">
+        <v>354</v>
+      </c>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c t="s" r="K133" s="17">
+        <v>355</v>
+      </c>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="637">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6357,10 +6474,25 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="K133:Q133"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -194,6 +194,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
@@ -374,6 +383,15 @@
     <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>DIXVIT 10.000 I.U. 30 TABS.</t>
   </si>
   <si>
@@ -914,9 +932,6 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -1070,7 +1085,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 9:21 PM</t>
+    <t>Wednesday, 8 October, 2025 9:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2140,7 +2155,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2173,7 +2188,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2183,11 +2198,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>26</v>
@@ -2199,14 +2214,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2216,11 +2231,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>26</v>
@@ -2232,14 +2247,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2272,24 +2287,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2298,31 +2313,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2331,14 +2346,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2388,7 +2403,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2404,7 +2419,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2414,11 +2429,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2430,14 +2445,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2454,7 +2469,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2470,7 +2485,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2503,7 +2518,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2513,11 +2528,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>26</v>
@@ -2529,7 +2544,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2546,7 +2561,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2569,7 +2584,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2586,7 +2601,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2602,7 +2617,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2612,14 +2627,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2635,7 +2650,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2645,14 +2660,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2661,31 +2676,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2701,13 +2716,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2715,10 +2730,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2727,14 +2742,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2744,14 +2759,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2767,7 +2782,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2777,14 +2792,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2793,14 +2808,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2810,14 +2825,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2826,14 +2841,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2843,11 +2858,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>26</v>
@@ -2859,24 +2874,24 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2899,24 +2914,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2932,13 +2947,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2949,7 +2964,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2965,13 +2980,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2998,7 +3013,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3015,7 +3030,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3031,7 +3046,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3041,14 +3056,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3057,14 +3072,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3074,11 +3089,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>26</v>
@@ -3090,14 +3105,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3107,14 +3122,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3123,14 +3138,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3140,14 +3155,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3156,14 +3171,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3173,11 +3188,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3189,14 +3204,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3213,7 +3228,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3229,7 +3244,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3262,7 +3277,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3295,7 +3310,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3328,7 +3343,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3338,14 +3353,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3354,14 +3369,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3371,14 +3386,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3387,14 +3402,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3404,11 +3419,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>26</v>
@@ -3420,14 +3435,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>58</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3437,14 +3452,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3453,28 +3468,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>26</v>
@@ -3486,14 +3501,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3503,14 +3518,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3519,7 +3534,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3532,18 +3547,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3552,14 +3567,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3569,14 +3584,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>54</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3585,14 +3600,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>56</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3602,14 +3617,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>164</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3618,14 +3633,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3635,14 +3650,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>54</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3658,7 +3673,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3668,11 +3683,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>26</v>
@@ -3684,14 +3699,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3701,14 +3716,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3717,7 +3732,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3734,11 +3749,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>26</v>
@@ -3757,7 +3772,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3790,7 +3805,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3807,7 +3822,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3823,7 +3838,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>56</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3833,14 +3848,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>211</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3849,14 +3864,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3866,14 +3881,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3882,31 +3897,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>35</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3915,14 +3930,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3932,11 +3947,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>62</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>26</v>
@@ -3948,31 +3963,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3981,14 +3996,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3998,11 +4013,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>65</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>26</v>
@@ -4014,14 +4029,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4031,11 +4046,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4047,14 +4062,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4064,14 +4079,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4080,14 +4095,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4097,11 +4112,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4113,28 +4128,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>24</v>
@@ -4146,14 +4161,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4163,14 +4178,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4179,31 +4194,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>149</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4212,14 +4227,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4229,7 +4244,7 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -4252,7 +4267,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4269,7 +4284,7 @@
         <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4285,7 +4300,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>30</v>
+        <v>245</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4295,7 +4310,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4318,7 +4333,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4351,13 +4366,13 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4368,7 +4383,7 @@
         <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4384,7 +4399,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4417,21 +4432,21 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>257</v>
+        <v>56</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4443,31 +4458,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4476,14 +4491,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>56</v>
+        <v>263</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4493,11 +4508,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4509,7 +4524,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4522,15 +4537,15 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4542,14 +4557,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4559,14 +4574,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4582,7 +4597,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>270</v>
+        <v>56</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4592,14 +4607,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4608,14 +4623,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>274</v>
+        <v>24</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4625,14 +4640,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4641,14 +4656,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>56</v>
+        <v>276</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4658,14 +4673,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4674,14 +4689,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>26</v>
+        <v>280</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4695,10 +4710,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>52</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4707,14 +4722,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>257</v>
+        <v>56</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4724,11 +4739,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4740,14 +4755,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4757,14 +4772,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>287</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4780,7 +4795,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>30</v>
+        <v>263</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4790,14 +4805,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>97</v>
+        <v>289</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4806,14 +4821,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4823,14 +4838,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>54</v>
+        <v>292</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>187</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4839,14 +4854,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4856,14 +4871,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>292</v>
+        <v>100</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4872,14 +4887,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4889,11 +4904,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>296</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4912,7 +4927,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4922,11 +4937,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4938,7 +4953,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4951,15 +4966,15 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>130</v>
+        <v>301</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>131</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4971,14 +4986,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>220</v>
+        <v>56</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4988,11 +5003,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -5004,31 +5019,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>303</v>
+        <v>56</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>304</v>
+        <v>136</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>305</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5037,14 +5052,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5054,11 +5069,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>279</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5091,10 +5106,10 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>60</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>310</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5110,7 +5125,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5120,14 +5135,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5136,31 +5151,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>301</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>315</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5169,31 +5184,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>225</v>
+        <v>317</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5202,31 +5217,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>319</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5235,31 +5250,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>319</v>
+        <v>58</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>320</v>
+        <v>231</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
         <v>321</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5275,24 +5290,24 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>323</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>14</v>
+        <v>306</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5301,31 +5316,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>225</v>
+        <v>325</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
         <v>326</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5341,24 +5356,24 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>56</v>
+        <v>328</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>328</v>
+        <v>14</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>257</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5380,18 +5395,18 @@
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5400,7 +5415,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5413,18 +5428,18 @@
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>334</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>323</v>
+        <v>263</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5433,31 +5448,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>56</v>
+        <v>335</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>164</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>179</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5466,31 +5481,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>337</v>
+        <v>56</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>328</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5499,31 +5514,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>18</v>
+        <v>333</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5532,28 +5547,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>225</v>
+        <v>333</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>226</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5565,28 +5580,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5598,28 +5613,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>343</v>
+        <v>231</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>316</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5631,28 +5646,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>300</v>
+        <v>156</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>301</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5664,28 +5679,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>220</v>
+        <v>324</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>14</v>
+        <v>348</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>15</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5697,31 +5712,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>14</v>
+        <v>306</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5730,28 +5745,28 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>226</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5763,31 +5778,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>349</v>
+        <v>56</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5796,66 +5811,132 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>351</v>
+        <v>41</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>352</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
-      <c r="P132" s="13">
-        <v>6774.0150000000003</v>
-      </c>
-      <c r="Q132" s="13"/>
-    </row>
-    <row r="133" ht="16.5" customHeight="1">
-      <c t="s" r="A133" s="14">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
         <v>353</v>
       </c>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c t="s" r="G133" s="15">
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
         <v>354</v>
       </c>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="16"/>
-      <c t="s" r="K133" s="17">
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>79</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>80</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
         <v>355</v>
       </c>
-      <c r="L133" s="17"/>
-      <c r="M133" s="17"/>
-      <c r="N133" s="17"/>
-      <c r="O133" s="17"/>
-      <c r="P133" s="17"/>
-      <c r="Q133" s="17"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>356</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>79</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>42</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>357</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="P134" s="13">
+        <v>6835.7449999999999</v>
+      </c>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="14">
+        <v>358</v>
+      </c>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c t="s" r="G135" s="15">
+        <v>359</v>
+      </c>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c t="s" r="K135" s="17">
+        <v>360</v>
+      </c>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="637">
+  <mergeCells count="647">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6489,10 +6570,20 @@
     <mergeCell ref="H131:K131"/>
     <mergeCell ref="L131:M131"/>
     <mergeCell ref="N131:O131"/>
-    <mergeCell ref="P132:Q132"/>
-    <mergeCell ref="A133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="K133:Q133"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="K135:Q135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -320,7 +320,10 @@
     <t>CORDARONE 200MG 30 SCORED TABLETS</t>
   </si>
   <si>
-    <t>33.6600</t>
+    <t>100.9800</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>CORTIPLEX B6 PEDIATRIC 3 AMP.</t>
@@ -344,10 +347,22 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>6:3</t>
-  </si>
-  <si>
-    <t>11.8800</t>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
   </si>
   <si>
     <t>DIASMECT 20% SUSP. 60ML</t>
@@ -461,9 +476,6 @@
     <t>108.00</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -596,9 +608,6 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>3:3</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -629,9 +638,6 @@
     <t>72.00</t>
   </si>
   <si>
-    <t>23.7600</t>
-  </si>
-  <si>
     <t>MAXDINIR 250MG/5ML 60 ML SUSP</t>
   </si>
   <si>
@@ -965,6 +971,18 @@
     <t>100.00</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>اولويز ماكس طويل جدا</t>
   </si>
   <si>
@@ -993,9 +1011,6 @@
   </si>
   <si>
     <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>16:0</t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
@@ -2551,7 +2566,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2568,7 +2583,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2577,7 +2592,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2594,11 +2609,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>26</v>
@@ -2610,7 +2625,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2627,11 +2642,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>41</v>
@@ -2643,14 +2658,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2664,10 +2679,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2676,14 +2691,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2693,14 +2708,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2709,31 +2724,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2742,31 +2757,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2775,14 +2790,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2792,14 +2807,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2808,14 +2823,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2825,14 +2840,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2841,14 +2856,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2858,14 +2873,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2874,7 +2889,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2891,11 +2906,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>26</v>
@@ -2907,14 +2922,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2924,11 +2939,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>26</v>
@@ -2940,28 +2955,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>26</v>
@@ -2973,14 +2988,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2990,14 +3005,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3006,28 +3021,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -3039,14 +3054,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3056,11 +3071,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3072,14 +3087,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3089,14 +3104,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3105,14 +3120,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3122,14 +3137,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>150</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3138,14 +3153,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3155,14 +3170,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3171,14 +3186,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3188,14 +3203,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3228,7 +3243,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3244,7 +3259,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3254,14 +3269,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3270,14 +3285,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3287,11 +3302,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3303,14 +3318,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3320,11 +3335,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3336,7 +3351,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3353,11 +3368,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3369,14 +3384,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3386,11 +3401,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3402,7 +3417,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3419,14 +3434,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3435,14 +3450,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3452,14 +3467,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3468,14 +3483,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3485,14 +3500,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3501,14 +3516,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3518,14 +3533,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3534,31 +3549,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>56</v>
+        <v>189</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3567,7 +3582,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3580,15 +3595,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>26</v>
@@ -3600,7 +3615,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3617,14 +3632,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3633,14 +3648,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3650,11 +3665,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3666,14 +3681,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3683,14 +3698,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>54</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3699,14 +3714,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3716,14 +3731,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3739,7 +3754,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3749,14 +3764,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3765,7 +3780,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3782,14 +3797,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3822,7 +3837,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3838,7 +3853,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3852,10 +3867,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3864,14 +3879,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>185</v>
+        <v>56</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3881,11 +3896,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3897,14 +3912,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3914,14 +3929,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>217</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3930,14 +3945,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3947,14 +3962,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>26</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3963,24 +3978,24 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -4003,17 +4018,17 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -4036,7 +4051,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>226</v>
+        <v>24</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4046,14 +4061,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4062,14 +4077,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>56</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4079,14 +4094,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4102,7 +4117,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4112,14 +4127,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4128,14 +4143,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4145,14 +4160,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4161,14 +4176,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4178,14 +4193,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4194,31 +4209,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>149</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4234,24 +4249,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4267,7 +4282,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4277,14 +4292,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>31</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4293,14 +4308,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>56</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4310,14 +4325,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4326,14 +4341,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>26</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4343,11 +4358,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>26</v>
@@ -4359,14 +4374,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4376,11 +4391,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>26</v>
@@ -4392,7 +4407,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4409,11 +4424,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>26</v>
@@ -4425,31 +4440,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4458,31 +4473,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4491,14 +4506,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4508,14 +4523,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>15</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4531,21 +4546,21 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>56</v>
+        <v>265</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4557,7 +4572,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4570,11 +4585,11 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4607,11 +4622,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4623,14 +4638,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4640,14 +4655,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4656,14 +4671,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>276</v>
+        <v>24</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4673,14 +4688,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4689,14 +4704,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4706,14 +4721,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4722,14 +4737,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>56</v>
+        <v>282</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4739,14 +4754,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4755,14 +4770,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4772,14 +4787,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>52</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4795,7 +4810,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>263</v>
+        <v>26</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4809,10 +4824,10 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>290</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4821,14 +4836,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>56</v>
+        <v>265</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4838,14 +4853,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4854,14 +4869,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4871,14 +4886,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>100</v>
+        <v>294</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>295</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4894,7 +4909,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4904,14 +4919,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>193</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4920,14 +4935,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4937,11 +4952,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>298</v>
+        <v>54</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>299</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4953,14 +4968,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>56</v>
+        <v>189</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4970,11 +4985,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4986,7 +5001,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5003,11 +5018,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>258</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -5019,7 +5034,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5032,15 +5047,15 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>136</v>
+        <v>259</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>137</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5052,28 +5067,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>226</v>
+        <v>56</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>306</v>
+        <v>141</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5092,7 +5107,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>308</v>
+        <v>228</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5102,14 +5117,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>310</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5118,14 +5133,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>56</v>
+        <v>310</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5135,14 +5150,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5151,14 +5166,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>313</v>
+        <v>56</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5168,14 +5183,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>60</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>315</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5184,14 +5199,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>26</v>
+        <v>315</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5201,14 +5216,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>26</v>
+        <v>317</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5224,24 +5239,24 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>319</v>
+        <v>26</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>126</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5257,7 +5272,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>58</v>
+        <v>321</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5267,14 +5282,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>231</v>
+        <v>322</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5283,14 +5298,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>325</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5300,14 +5315,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5316,14 +5331,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>324</v>
+        <v>58</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5333,14 +5348,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>325</v>
+        <v>233</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5349,14 +5364,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>328</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5366,14 +5381,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>14</v>
+        <v>308</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5399,14 +5414,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>231</v>
+        <v>331</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5415,14 +5430,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>56</v>
+        <v>321</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5432,14 +5447,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>333</v>
+        <v>14</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>263</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5465,14 +5480,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>336</v>
+        <v>233</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5481,7 +5496,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5498,14 +5513,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>339</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>328</v>
+        <v>265</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5514,14 +5529,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>56</v>
+        <v>340</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5531,14 +5546,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>170</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>185</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5547,14 +5562,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>342</v>
+        <v>56</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5564,14 +5579,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>321</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5580,14 +5595,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5597,14 +5612,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>18</v>
+        <v>338</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5613,14 +5628,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5630,11 +5645,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>231</v>
+        <v>338</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>232</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5646,14 +5661,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5663,11 +5678,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5679,14 +5694,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5696,11 +5711,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>348</v>
+        <v>233</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>321</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5712,14 +5727,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5729,11 +5744,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>306</v>
+        <v>160</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5745,14 +5760,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>226</v>
+        <v>330</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5762,11 +5777,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>14</v>
+        <v>353</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>15</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5778,14 +5793,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5795,14 +5810,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>14</v>
+        <v>308</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5811,14 +5826,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>41</v>
+        <v>228</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5828,11 +5843,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>231</v>
+        <v>14</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5844,14 +5859,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>354</v>
+        <v>56</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5861,14 +5876,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5877,14 +5892,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>356</v>
+        <v>41</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5894,49 +5909,115 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>357</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
-      <c r="P134" s="13">
-        <v>6835.7449999999999</v>
-      </c>
-      <c r="Q134" s="13"/>
-    </row>
-    <row r="135" ht="16.5" customHeight="1">
-      <c t="s" r="A135" s="14">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
         <v>358</v>
       </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c t="s" r="G135" s="15">
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
         <v>359</v>
       </c>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="16"/>
-      <c t="s" r="K135" s="17">
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>79</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>80</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
         <v>360</v>
       </c>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="17"/>
-      <c r="P135" s="17"/>
-      <c r="Q135" s="17"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>361</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>79</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>42</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>362</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>6955.9449999999997</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>363</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>364</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>365</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="647">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6580,10 +6661,20 @@
     <mergeCell ref="H133:K133"/>
     <mergeCell ref="L133:M133"/>
     <mergeCell ref="N133:O133"/>
-    <mergeCell ref="P134:Q134"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="K135:Q135"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -1100,7 +1100,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 9:27 PM</t>
+    <t>Wednesday, 8 October, 2025 9:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -335,6 +335,15 @@
     <t>8.9100</t>
   </si>
   <si>
+    <t>CURAM 1GM 12 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>182.00</t>
+  </si>
+  <si>
+    <t>60.0600</t>
+  </si>
+  <si>
     <t>DAKTACORT CREAM 15 GM</t>
   </si>
   <si>
@@ -1100,7 +1109,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 9:30 PM</t>
+    <t>Wednesday, 8 October, 2025 9:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2649,7 +2658,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2665,7 +2674,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2675,14 +2684,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2708,14 +2717,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2724,14 +2733,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2745,10 +2754,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2757,31 +2766,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2797,13 +2806,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2811,10 +2820,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2823,14 +2832,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2840,14 +2849,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2863,7 +2872,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2873,14 +2882,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2889,14 +2898,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2906,14 +2915,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2939,11 +2948,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>26</v>
@@ -2955,14 +2964,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2972,7 +2981,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2995,17 +3004,17 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -3028,7 +3037,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3045,7 +3054,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3061,13 +3070,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -3094,7 +3103,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3127,7 +3136,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3144,7 +3153,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3160,7 +3169,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3170,14 +3179,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>104</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3203,14 +3212,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3236,14 +3245,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3252,14 +3261,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3269,14 +3278,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3285,14 +3294,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3309,7 +3318,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3325,7 +3334,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3358,7 +3367,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3424,7 +3433,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3467,14 +3476,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3483,14 +3492,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3500,14 +3509,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3516,14 +3525,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3533,14 +3542,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3556,7 +3565,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3566,14 +3575,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3582,31 +3591,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3615,7 +3624,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3628,15 +3637,15 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>26</v>
@@ -3648,7 +3657,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3665,14 +3674,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3681,14 +3690,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3698,11 +3707,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>54</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3714,14 +3723,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3731,14 +3740,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>54</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3747,14 +3756,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3764,14 +3773,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3787,7 +3796,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3797,14 +3806,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3813,7 +3822,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3830,14 +3839,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3867,10 +3876,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3879,14 +3888,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3896,14 +3905,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3919,7 +3928,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>189</v>
+        <v>56</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3952,7 +3961,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3962,14 +3971,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>219</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3978,14 +3987,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3995,14 +4004,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q75" s="12">
         <v>222</v>
-      </c>
-      <c t="s" r="Q75" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4018,21 +4027,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>26</v>
@@ -4044,28 +4053,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>26</v>
@@ -4077,14 +4086,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>24</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4094,14 +4103,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4117,7 +4126,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>56</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4127,14 +4136,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>100</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4143,14 +4152,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4160,14 +4169,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4183,7 +4192,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4193,14 +4202,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4209,14 +4218,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4226,14 +4235,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4249,24 +4258,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>154</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4275,31 +4284,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4308,14 +4317,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4325,14 +4334,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>31</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4348,7 +4357,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>56</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4358,14 +4367,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4381,7 +4390,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>250</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4391,7 +4400,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4414,7 +4423,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4480,13 +4489,13 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4497,7 +4506,7 @@
         <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4513,13 +4522,13 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4530,7 +4539,7 @@
         <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4546,7 +4555,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>265</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4556,14 +4565,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4572,28 +4581,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>56</v>
+        <v>268</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>14</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4618,15 +4627,15 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4638,7 +4647,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4655,7 +4664,7 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4678,7 +4687,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4695,7 +4704,7 @@
         <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4711,7 +4720,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>278</v>
+        <v>24</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4721,14 +4730,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4737,14 +4746,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4754,14 +4763,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4770,14 +4779,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>56</v>
+        <v>285</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4794,7 +4803,7 @@
         <v>287</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4810,7 +4819,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4824,10 +4833,10 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>52</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4836,14 +4845,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>265</v>
+        <v>26</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4853,14 +4862,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>292</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4876,7 +4885,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>56</v>
+        <v>268</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4893,7 +4902,7 @@
         <v>295</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4909,7 +4918,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4919,14 +4928,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>100</v>
+        <v>297</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4935,14 +4944,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4952,14 +4961,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>197</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4968,14 +4977,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4985,11 +4994,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>300</v>
+        <v>54</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>301</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -5008,7 +5017,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5051,11 +5060,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>260</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5067,7 +5076,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5080,15 +5089,15 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>141</v>
+        <v>262</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5100,28 +5109,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>228</v>
+        <v>56</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5133,14 +5142,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>310</v>
+        <v>231</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5154,10 +5163,10 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>312</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5166,14 +5175,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>56</v>
+        <v>313</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5183,14 +5192,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5199,14 +5208,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>315</v>
+        <v>56</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5216,14 +5225,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>317</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5232,14 +5241,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>26</v>
+        <v>318</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5253,10 +5262,10 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>292</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>26</v>
+        <v>320</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5265,20 +5274,20 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>321</v>
+        <v>26</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
@@ -5286,10 +5295,10 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5298,14 +5307,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5315,11 +5324,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>131</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5331,14 +5340,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>58</v>
+        <v>328</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5348,14 +5357,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>233</v>
+        <v>311</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>327</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5364,14 +5373,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5381,14 +5390,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>308</v>
+        <v>236</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>46</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5397,14 +5406,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>330</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5414,14 +5423,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>332</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5430,14 +5439,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5447,11 +5456,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>14</v>
+        <v>334</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>15</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5463,14 +5472,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5480,14 +5489,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>336</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5503,7 +5512,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>56</v>
+        <v>338</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5513,14 +5522,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>338</v>
+        <v>236</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>60</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>265</v>
+        <v>56</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5529,14 +5538,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>340</v>
+        <v>56</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5550,10 +5559,10 @@
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>342</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>24</v>
+        <v>268</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5562,14 +5571,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>56</v>
+        <v>343</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5579,14 +5588,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>321</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5595,7 +5604,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5612,14 +5621,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>15</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>58</v>
+        <v>324</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5628,14 +5637,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>347</v>
+        <v>56</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5645,14 +5654,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>336</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5661,14 +5670,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>68</v>
+        <v>350</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5678,11 +5687,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>18</v>
+        <v>341</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>19</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5694,14 +5703,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>350</v>
+        <v>68</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5711,11 +5720,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5727,14 +5736,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>16</v>
+        <v>353</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5744,11 +5753,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>160</v>
+        <v>236</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5760,14 +5769,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>330</v>
+        <v>16</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5777,11 +5786,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>353</v>
+        <v>163</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>327</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5793,14 +5802,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>41</v>
+        <v>333</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5810,11 +5819,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>131</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5826,14 +5835,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5843,11 +5852,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>14</v>
+        <v>311</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5859,14 +5868,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>56</v>
+        <v>231</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5880,10 +5889,10 @@
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5892,14 +5901,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5909,14 +5918,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>234</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5925,14 +5934,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>359</v>
+        <v>41</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5942,11 +5951,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -5958,14 +5967,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5975,49 +5984,82 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>362</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>6955.9449999999997</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
         <v>363</v>
       </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
         <v>364</v>
       </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>79</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>42</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
         <v>365</v>
       </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+      <c t="s" r="Q136" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="P137" s="13">
+        <v>7016.0050000000001</v>
+      </c>
+      <c r="Q137" s="13"/>
+    </row>
+    <row r="138" ht="16.5" customHeight="1">
+      <c t="s" r="A138" s="14">
+        <v>366</v>
+      </c>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c t="s" r="G138" s="15">
+        <v>367</v>
+      </c>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+      <c t="s" r="K138" s="17">
+        <v>368</v>
+      </c>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17"/>
+      <c r="P138" s="17"/>
+      <c r="Q138" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="662">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6671,10 +6713,15 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="K138:Q138"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -1109,7 +1109,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 9:51 PM</t>
+    <t>Wednesday, 8 October, 2025 9:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -425,10 +425,10 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>8:2</t>
-  </si>
-  <si>
-    <t>15.8400</t>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>31.6800</t>
   </si>
   <si>
     <t>EMPACOZA TRIO XR 10/5/1000MG 30 TAB</t>
@@ -467,6 +467,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>E-YEAST 20 CAPS</t>
   </si>
   <si>
@@ -761,10 +770,10 @@
     <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
   </si>
   <si>
-    <t>0:12</t>
-  </si>
-  <si>
-    <t>4.8000</t>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>9.6000</t>
   </si>
   <si>
     <t>PROTOFIX 40MG 14 F.C. TAB</t>
@@ -812,6 +821,12 @@
     <t>127.0000</t>
   </si>
   <si>
+    <t>SAFE TOP SYRUP</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>SELGON 10MG 6 INFANT SUPP.</t>
   </si>
   <si>
@@ -1052,7 +1067,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>32.0000</t>
+    <t>17:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1097,9 +1112,6 @@
     <t>كريم كير اند مور75مل</t>
   </si>
   <si>
-    <t>17:0</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -1109,7 +1121,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 9:54 PM</t>
+    <t>Wednesday, 8 October, 2025 10:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3021,7 +3033,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3169,7 +3181,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3186,7 +3198,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3202,7 +3214,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3212,14 +3224,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>104</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3245,14 +3257,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3278,14 +3290,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3294,14 +3306,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3311,14 +3323,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3327,14 +3339,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3351,7 +3363,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3367,7 +3379,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3400,7 +3412,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3466,7 +3478,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3509,14 +3521,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3525,14 +3537,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3542,14 +3554,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3558,14 +3570,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3575,14 +3587,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3598,7 +3610,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3608,14 +3620,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3624,31 +3636,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3657,7 +3669,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3670,15 +3682,15 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>26</v>
@@ -3690,7 +3702,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3707,14 +3719,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3723,14 +3735,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3740,11 +3752,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3756,14 +3768,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3773,14 +3785,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>54</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3789,14 +3801,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3806,14 +3818,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3829,7 +3841,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3839,14 +3851,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3855,7 +3867,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3872,14 +3884,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3909,10 +3921,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3921,14 +3933,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3938,14 +3950,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3961,7 +3973,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3994,7 +4006,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4004,14 +4016,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>222</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4020,14 +4032,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>41</v>
+        <v>222</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4037,14 +4049,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q76" s="12">
         <v>225</v>
-      </c>
-      <c t="s" r="Q76" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4060,21 +4072,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>26</v>
@@ -4086,28 +4098,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>26</v>
@@ -4119,14 +4131,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4136,14 +4148,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4159,7 +4171,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>56</v>
+        <v>234</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4169,14 +4181,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>100</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4185,14 +4197,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4202,14 +4214,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4225,7 +4237,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4235,14 +4247,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4251,14 +4263,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4268,14 +4280,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4291,24 +4303,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>157</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4317,31 +4329,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4350,14 +4362,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4367,14 +4379,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>31</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4390,7 +4402,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4400,14 +4412,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4423,7 +4435,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4433,14 +4445,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4456,7 +4468,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4522,13 +4534,13 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4539,7 +4551,7 @@
         <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4555,13 +4567,13 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
@@ -4572,7 +4584,7 @@
         <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4588,7 +4600,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>268</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4598,14 +4610,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>14</v>
+        <v>268</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4614,7 +4626,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4631,7 +4643,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>119</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4654,7 +4666,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>56</v>
+        <v>273</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4664,11 +4676,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4693,7 +4705,7 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4720,7 +4732,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4730,14 +4742,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>278</v>
+        <v>227</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4746,14 +4758,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>281</v>
+        <v>56</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4763,14 +4775,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4779,14 +4791,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>285</v>
+        <v>24</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4796,14 +4808,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4812,14 +4824,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>56</v>
+        <v>286</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4829,14 +4841,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4845,14 +4857,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>26</v>
+        <v>290</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4862,14 +4874,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>52</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4885,7 +4897,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>268</v>
+        <v>56</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4918,7 +4930,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4932,10 +4944,10 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>298</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4944,14 +4956,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>30</v>
+        <v>273</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4961,14 +4973,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>100</v>
+        <v>299</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>300</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4984,7 +4996,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4994,14 +5006,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>54</v>
+        <v>302</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>200</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5010,14 +5022,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>192</v>
+        <v>30</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5027,14 +5039,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>303</v>
+        <v>100</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5043,14 +5055,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5060,11 +5072,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>306</v>
+        <v>54</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>307</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5076,14 +5088,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5093,11 +5105,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5109,7 +5121,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5122,15 +5134,15 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>144</v>
+        <v>311</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>145</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5142,14 +5154,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>231</v>
+        <v>56</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5159,11 +5171,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>134</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5175,31 +5187,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>313</v>
+        <v>56</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>314</v>
+        <v>144</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>315</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5208,14 +5220,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>56</v>
+        <v>234</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5225,11 +5237,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>290</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5262,10 +5274,10 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>60</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>320</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5281,7 +5293,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5291,14 +5303,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
         <v>295</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5307,31 +5319,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>326</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>325</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5340,31 +5352,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>328</v>
+        <v>26</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>134</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5373,14 +5385,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>58</v>
+        <v>329</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5390,14 +5402,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>236</v>
+        <v>330</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5406,14 +5418,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>333</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5423,14 +5435,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5439,14 +5451,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>333</v>
+        <v>58</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5456,14 +5468,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>334</v>
+        <v>239</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
         <v>335</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5479,7 +5491,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>324</v>
+        <v>16</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5489,14 +5501,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>14</v>
+        <v>316</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5522,14 +5534,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>236</v>
+        <v>339</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5538,14 +5550,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>56</v>
+        <v>329</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5555,14 +5567,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>341</v>
+        <v>14</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>268</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5588,14 +5600,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>344</v>
+        <v>239</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5604,7 +5616,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5621,14 +5633,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>347</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>324</v>
+        <v>273</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5637,14 +5649,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>56</v>
+        <v>348</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5654,14 +5666,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>15</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5670,14 +5682,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>350</v>
+        <v>56</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5687,14 +5699,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>339</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>352</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5703,14 +5715,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5720,14 +5732,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>18</v>
+        <v>346</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5736,14 +5748,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5753,11 +5765,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>236</v>
+        <v>346</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>237</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5769,14 +5781,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5786,11 +5798,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5802,14 +5814,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5819,11 +5831,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>356</v>
+        <v>239</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5835,14 +5847,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5852,11 +5864,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>311</v>
+        <v>166</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5868,14 +5880,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>231</v>
+        <v>338</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5885,11 +5897,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>14</v>
+        <v>361</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>15</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5901,14 +5913,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5918,14 +5930,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>14</v>
+        <v>316</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5934,14 +5946,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5951,11 +5963,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>236</v>
+        <v>14</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>237</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -5967,14 +5979,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>362</v>
+        <v>56</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5984,14 +5996,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6000,14 +6012,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>364</v>
+        <v>41</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6017,49 +6029,115 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>365</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
-      <c r="P137" s="13">
-        <v>7016.0050000000001</v>
-      </c>
-      <c r="Q137" s="13"/>
-    </row>
-    <row r="138" ht="16.5" customHeight="1">
-      <c t="s" r="A138" s="14">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
         <v>366</v>
       </c>
-      <c r="B138" s="14"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c t="s" r="G138" s="15">
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>352</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>79</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>80</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
         <v>367</v>
       </c>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="16"/>
-      <c t="s" r="K138" s="17">
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
         <v>368</v>
       </c>
-      <c r="L138" s="17"/>
-      <c r="M138" s="17"/>
-      <c r="N138" s="17"/>
-      <c r="O138" s="17"/>
-      <c r="P138" s="17"/>
-      <c r="Q138" s="17"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>79</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>42</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>369</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="P139" s="13">
+        <v>7144.6450000000004</v>
+      </c>
+      <c r="Q139" s="13"/>
+    </row>
+    <row r="140" ht="16.5" customHeight="1">
+      <c t="s" r="A140" s="14">
+        <v>370</v>
+      </c>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c t="s" r="G140" s="15">
+        <v>371</v>
+      </c>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="16"/>
+      <c t="s" r="K140" s="17">
+        <v>372</v>
+      </c>
+      <c r="L140" s="17"/>
+      <c r="M140" s="17"/>
+      <c r="N140" s="17"/>
+      <c r="O140" s="17"/>
+      <c r="P140" s="17"/>
+      <c r="Q140" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="662">
+  <mergeCells count="672">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6718,10 +6796,20 @@
     <mergeCell ref="H136:K136"/>
     <mergeCell ref="L136:M136"/>
     <mergeCell ref="N136:O136"/>
-    <mergeCell ref="P137:Q137"/>
-    <mergeCell ref="A138:F138"/>
-    <mergeCell ref="G138:I138"/>
-    <mergeCell ref="K138:Q138"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="P139:Q139"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="G140:I140"/>
+    <mergeCell ref="K140:Q140"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -431,6 +431,15 @@
     <t>31.6800</t>
   </si>
   <si>
+    <t>DOWNOPRAZOL 20/1680MG PD. FOR ORAL SUSP. 7 SACHETS</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
     <t>EMPACOZA TRIO XR 10/5/1000MG 30 TAB</t>
   </si>
   <si>
@@ -536,6 +545,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>FLAVICEF 100MG/5ML PD. FOR ORAL SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -578,6 +596,15 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>HYFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
   </si>
   <si>
@@ -650,6 +677,9 @@
     <t>145.0000</t>
   </si>
   <si>
+    <t>LUBRISTIRA 15ML EYE DROPS</t>
+  </si>
+  <si>
     <t>MAVILOR 2.5 MG 30 TAB.</t>
   </si>
   <si>
@@ -704,6 +734,21 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>NORMOCARD 5MG 30 TAB.</t>
   </si>
   <si>
@@ -719,12 +764,12 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>OPTIDEX -T EYE DROPS 5 ML</t>
+  </si>
+  <si>
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
-    <t>75.0000</t>
-  </si>
-  <si>
     <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -767,6 +812,15 @@
     <t>29.5000</t>
   </si>
   <si>
+    <t>PRAVOTIN 100MG 30 SACHETS</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>360.0000</t>
+  </si>
+  <si>
     <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
   </si>
   <si>
@@ -794,6 +848,15 @@
     <t>28.2000</t>
   </si>
   <si>
+    <t>REDAND 20 CAPSULE</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>225.0000</t>
+  </si>
+  <si>
     <t>REGIMAX 120MG 30 CAPS</t>
   </si>
   <si>
@@ -959,9 +1022,6 @@
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -980,13 +1040,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8171:0</t>
+    <t>8167:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>9:0</t>
+    <t>13:0</t>
   </si>
   <si>
     <t>ZYRTEC 10MG 20 TAB</t>
@@ -1025,9 +1085,6 @@
     <t>برمنجنات بوتاسيوم</t>
   </si>
   <si>
-    <t>13:0</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
@@ -1121,7 +1178,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 10:24 PM</t>
+    <t>Wednesday, 8 October, 2025 10:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3049,24 +3106,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3082,7 +3139,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3099,7 +3156,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3115,13 +3172,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -3148,7 +3205,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3181,7 +3238,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3214,7 +3271,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3231,7 +3288,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3247,7 +3304,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3257,14 +3314,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>104</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3290,14 +3347,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3323,14 +3380,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3339,14 +3396,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3356,14 +3413,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3372,14 +3429,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3396,7 +3453,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3412,7 +3469,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3478,7 +3535,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3511,7 +3568,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3544,7 +3601,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3554,14 +3611,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3570,14 +3627,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3587,14 +3644,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3603,14 +3660,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3620,11 +3677,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>26</v>
@@ -3636,14 +3693,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3653,11 +3710,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3669,31 +3726,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>84</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3702,14 +3759,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3719,11 +3776,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>26</v>
@@ -3735,14 +3792,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>56</v>
+        <v>204</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3752,11 +3809,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3768,31 +3825,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3801,14 +3858,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3818,11 +3875,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>26</v>
@@ -3834,7 +3891,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3851,14 +3908,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3867,14 +3924,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3884,14 +3941,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>192</v>
+        <v>54</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3900,14 +3957,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3917,14 +3974,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3933,14 +3990,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3950,14 +4007,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>116</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3966,14 +4023,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3983,14 +4040,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3999,14 +4056,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4016,11 +4073,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -4032,31 +4089,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>222</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>225</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4065,14 +4122,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4082,11 +4139,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>26</v>
@@ -4098,31 +4155,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>35</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4131,14 +4188,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4148,14 +4205,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4164,14 +4221,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4181,14 +4238,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>100</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q80" s="12">
         <v>235</v>
-      </c>
-      <c t="s" r="Q80" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4204,7 +4261,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4214,11 +4271,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>26</v>
@@ -4230,31 +4287,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>35</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4270,7 +4327,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4280,14 +4337,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4296,14 +4353,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4313,11 +4370,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4329,31 +4386,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4362,14 +4419,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>249</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4379,14 +4436,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4395,7 +4452,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4412,11 +4469,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>112</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4435,7 +4492,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>253</v>
+        <v>56</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4445,14 +4502,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4461,14 +4518,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4478,14 +4535,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4494,14 +4551,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4511,14 +4568,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4527,14 +4584,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4544,14 +4601,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4560,14 +4617,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4577,14 +4634,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>163</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4593,7 +4650,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4610,11 +4667,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>31</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>26</v>
@@ -4626,7 +4683,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4639,15 +4696,15 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>119</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4659,14 +4716,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>273</v>
+        <v>56</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4676,11 +4733,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>14</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4692,31 +4749,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>56</v>
+        <v>271</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>214</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4725,14 +4782,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4742,14 +4799,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4758,14 +4815,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4775,14 +4832,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4791,14 +4848,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4808,14 +4865,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4824,14 +4881,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>286</v>
+        <v>30</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4841,14 +4898,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4857,31 +4914,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>290</v>
+        <v>56</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4890,14 +4947,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4907,14 +4964,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4923,31 +4980,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>297</v>
+        <v>119</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>52</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4956,14 +5013,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4973,11 +5030,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>299</v>
+        <v>14</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4989,7 +5046,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -5002,18 +5059,18 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5022,14 +5079,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5039,14 +5096,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>100</v>
+        <v>237</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5055,14 +5112,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5072,11 +5129,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>54</v>
+        <v>301</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>203</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5088,14 +5145,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5105,14 +5162,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5121,14 +5178,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>56</v>
+        <v>307</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5138,14 +5195,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5154,14 +5211,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>56</v>
+        <v>311</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5171,14 +5228,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>266</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5200,15 +5257,15 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>144</v>
+        <v>315</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>145</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5220,14 +5277,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>234</v>
+        <v>26</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5237,14 +5294,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5253,14 +5310,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5270,14 +5327,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5286,7 +5343,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5303,14 +5360,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5319,14 +5376,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>323</v>
+        <v>30</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5336,14 +5393,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>324</v>
+        <v>100</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>60</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>325</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5352,14 +5409,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5369,14 +5426,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>327</v>
+        <v>54</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5392,21 +5449,21 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>329</v>
+        <v>204</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5418,28 +5475,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>333</v>
+        <v>56</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>134</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5458,24 +5515,24 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>239</v>
+        <v>286</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5484,14 +5541,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5501,14 +5558,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>316</v>
+        <v>147</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5517,28 +5574,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>338</v>
+        <v>249</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>339</v>
+        <v>142</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>340</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5550,31 +5607,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>14</v>
+        <v>339</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>15</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5583,31 +5640,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>343</v>
+        <v>56</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>239</v>
+        <v>315</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5616,31 +5673,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>56</v>
+        <v>343</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>60</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>273</v>
+        <v>345</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5649,31 +5706,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>348</v>
+        <v>26</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5682,14 +5739,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>56</v>
+        <v>349</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5699,14 +5756,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>188</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>352</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5715,14 +5772,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>56</v>
+        <v>353</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5732,14 +5789,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>346</v>
+        <v>142</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5755,7 +5812,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>355</v>
+        <v>58</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5765,14 +5822,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>346</v>
+        <v>254</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5788,7 +5845,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5798,14 +5855,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5821,7 +5878,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5831,11 +5888,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>239</v>
+        <v>358</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>240</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5847,14 +5904,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>16</v>
+        <v>349</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5864,11 +5921,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5880,14 +5937,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5897,14 +5954,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>361</v>
+        <v>254</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5913,14 +5970,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5930,14 +5987,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>316</v>
+        <v>365</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>16</v>
+        <v>294</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5946,14 +6003,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>234</v>
+        <v>367</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5963,14 +6020,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>14</v>
+        <v>368</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>15</v>
+        <v>369</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5979,7 +6036,7 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
@@ -5996,14 +6053,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>14</v>
+        <v>344</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>41</v>
+        <v>371</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6012,14 +6069,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6029,14 +6086,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>239</v>
+        <v>365</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>240</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6045,14 +6102,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6062,11 +6119,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>81</v>
+        <v>363</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6078,14 +6135,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>368</v>
+        <v>68</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6095,49 +6152,346 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>369</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
-      <c r="P139" s="13">
-        <v>7144.6450000000004</v>
-      </c>
-      <c r="Q139" s="13"/>
-    </row>
-    <row r="140" ht="16.5" customHeight="1">
-      <c t="s" r="A140" s="14">
-        <v>370</v>
-      </c>
-      <c r="B140" s="14"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c t="s" r="G140" s="15">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>376</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>377</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>79</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>254</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>378</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>16</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>79</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>169</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>379</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>345</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>79</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>380</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
+        <v>355</v>
+      </c>
+      <c t="s" r="Q141" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
+        <v>381</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>41</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>79</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
+        <v>142</v>
+      </c>
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q142" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="A143" s="7">
+        <v>137</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c t="s" r="C143" s="8">
+        <v>382</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c t="s" r="H143" s="9">
+        <v>249</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c t="s" r="L143" s="10">
+        <v>79</v>
+      </c>
+      <c r="M143" s="10"/>
+      <c t="s" r="N143" s="8">
+        <v>14</v>
+      </c>
+      <c r="O143" s="8"/>
+      <c t="s" r="P143" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q143" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="A144" s="7">
+        <v>138</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c t="s" r="C144" s="8">
+        <v>383</v>
+      </c>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c t="s" r="H144" s="9">
+        <v>56</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c t="s" r="L144" s="10">
+        <v>79</v>
+      </c>
+      <c r="M144" s="10"/>
+      <c t="s" r="N144" s="8">
+        <v>14</v>
+      </c>
+      <c r="O144" s="8"/>
+      <c t="s" r="P144" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q144" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="A145" s="7">
+        <v>139</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c t="s" r="C145" s="8">
+        <v>384</v>
+      </c>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c t="s" r="H145" s="9">
+        <v>41</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c t="s" r="L145" s="10">
+        <v>79</v>
+      </c>
+      <c r="M145" s="10"/>
+      <c t="s" r="N145" s="8">
+        <v>254</v>
+      </c>
+      <c r="O145" s="8"/>
+      <c t="s" r="P145" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q145" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="A146" s="7">
+        <v>140</v>
+      </c>
+      <c r="B146" s="7"/>
+      <c t="s" r="C146" s="8">
+        <v>385</v>
+      </c>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c t="s" r="H146" s="9">
         <v>371</v>
       </c>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="16"/>
-      <c t="s" r="K140" s="17">
-        <v>372</v>
-      </c>
-      <c r="L140" s="17"/>
-      <c r="M140" s="17"/>
-      <c r="N140" s="17"/>
-      <c r="O140" s="17"/>
-      <c r="P140" s="17"/>
-      <c r="Q140" s="17"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c t="s" r="L146" s="10">
+        <v>79</v>
+      </c>
+      <c r="M146" s="10"/>
+      <c t="s" r="N146" s="8">
+        <v>80</v>
+      </c>
+      <c r="O146" s="8"/>
+      <c t="s" r="P146" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q146" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" ht="25.5" customHeight="1">
+      <c r="A147" s="7">
+        <v>141</v>
+      </c>
+      <c r="B147" s="7"/>
+      <c t="s" r="C147" s="8">
+        <v>386</v>
+      </c>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c t="s" r="H147" s="9">
+        <v>387</v>
+      </c>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c t="s" r="L147" s="10">
+        <v>79</v>
+      </c>
+      <c r="M147" s="10"/>
+      <c t="s" r="N147" s="8">
+        <v>42</v>
+      </c>
+      <c r="O147" s="8"/>
+      <c t="s" r="P147" s="11">
+        <v>388</v>
+      </c>
+      <c t="s" r="Q147" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" ht="24.75" customHeight="1">
+      <c r="P148" s="13">
+        <v>8144.6450000000004</v>
+      </c>
+      <c r="Q148" s="13"/>
+    </row>
+    <row r="149" ht="16.5" customHeight="1">
+      <c t="s" r="A149" s="14">
+        <v>389</v>
+      </c>
+      <c r="B149" s="14"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14"/>
+      <c t="s" r="G149" s="15">
+        <v>390</v>
+      </c>
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="16"/>
+      <c t="s" r="K149" s="17">
+        <v>391</v>
+      </c>
+      <c r="L149" s="17"/>
+      <c r="M149" s="17"/>
+      <c r="N149" s="17"/>
+      <c r="O149" s="17"/>
+      <c r="P149" s="17"/>
+      <c r="Q149" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="672">
+  <mergeCells count="717">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6806,10 +7160,55 @@
     <mergeCell ref="H138:K138"/>
     <mergeCell ref="L138:M138"/>
     <mergeCell ref="N138:O138"/>
-    <mergeCell ref="P139:Q139"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="G140:I140"/>
-    <mergeCell ref="K140:Q140"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="N145:O145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:G146"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:G147"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="P148:Q148"/>
+    <mergeCell ref="A149:F149"/>
+    <mergeCell ref="G149:I149"/>
+    <mergeCell ref="K149:Q149"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-08_00-00.xlsx
+++ b/DaySale_2025-10-08_00-00.xlsx
@@ -821,6 +821,9 @@
     <t>360.0000</t>
   </si>
   <si>
+    <t>PREDSOL FORTE 15MG/5ML SYRUP 60ML</t>
+  </si>
+  <si>
     <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
   </si>
   <si>
@@ -1049,6 +1052,12 @@
     <t>13:0</t>
   </si>
   <si>
+    <t>ZINCOREX SHAMPOO 200ML</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
@@ -1178,7 +1187,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 8 October, 2025 10:27 PM</t>
+    <t>Wednesday, 8 October, 2025 10:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4756,7 +4765,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>271</v>
+        <v>56</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4766,14 +4775,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4782,14 +4791,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>26</v>
+        <v>272</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4799,14 +4808,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4815,14 +4824,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4832,11 +4841,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>26</v>
@@ -4848,14 +4857,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4865,14 +4874,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4881,14 +4890,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4898,14 +4907,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4914,31 +4923,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4947,31 +4956,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4980,31 +4989,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>119</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -5013,28 +5022,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>294</v>
+        <v>56</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>15</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -5046,28 +5055,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>56</v>
+        <v>295</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>296</v>
+        <v>14</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>297</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -5079,7 +5088,7 @@
       </c>
       <c r